--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E7438-DEAC-49F1-986A-89C201DBDC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -965,9 +966,6 @@
     <t>Zuid-West-Vlaanderen</t>
   </si>
   <si>
-    <t>Regio Oostende</t>
-  </si>
-  <si>
     <t>Midwest</t>
   </si>
   <si>
@@ -1047,12 +1045,15 @@
   </si>
   <si>
     <t>REFREG09</t>
+  </si>
+  <si>
+    <t>Middenkust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,11 +1398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139:C206"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
         <v>321</v>
-      </c>
-      <c r="D1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
         <v>304</v>
@@ -1442,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
         <v>304</v>
@@ -1456,7 +1457,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s">
         <v>304</v>
@@ -1470,7 +1471,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
         <v>304</v>
@@ -1484,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
         <v>304</v>
@@ -1498,7 +1499,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
         <v>304</v>
@@ -1512,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
         <v>304</v>
@@ -1526,7 +1527,7 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
         <v>304</v>
@@ -1540,7 +1541,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" t="s">
         <v>304</v>
@@ -1554,7 +1555,7 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
         <v>304</v>
@@ -1568,7 +1569,7 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
         <v>304</v>
@@ -1582,7 +1583,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
         <v>304</v>
@@ -1596,7 +1597,7 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
         <v>304</v>
@@ -1610,7 +1611,7 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
         <v>304</v>
@@ -1624,7 +1625,7 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
         <v>304</v>
@@ -1638,7 +1639,7 @@
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
         <v>304</v>
@@ -1652,7 +1653,7 @@
         <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" t="s">
         <v>304</v>
@@ -1666,7 +1667,7 @@
         <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
         <v>304</v>
@@ -1680,7 +1681,7 @@
         <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D20" t="s">
         <v>304</v>
@@ -1694,7 +1695,7 @@
         <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D21" t="s">
         <v>304</v>
@@ -1708,7 +1709,7 @@
         <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
         <v>304</v>
@@ -1722,7 +1723,7 @@
         <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" t="s">
         <v>304</v>
@@ -1736,7 +1737,7 @@
         <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
         <v>304</v>
@@ -1750,7 +1751,7 @@
         <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
         <v>304</v>
@@ -1764,7 +1765,7 @@
         <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
         <v>304</v>
@@ -1778,7 +1779,7 @@
         <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
         <v>304</v>
@@ -1792,7 +1793,7 @@
         <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
         <v>304</v>
@@ -1806,7 +1807,7 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
         <v>304</v>
@@ -1820,10 +1821,10 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,7 +1835,7 @@
         <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
         <v>304</v>
@@ -1848,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
         <v>305</v>
@@ -1862,7 +1863,7 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" t="s">
         <v>305</v>
@@ -1876,7 +1877,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
         <v>305</v>
@@ -1890,7 +1891,7 @@
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D35" t="s">
         <v>305</v>
@@ -1904,7 +1905,7 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D36" t="s">
         <v>305</v>
@@ -1918,7 +1919,7 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D37" t="s">
         <v>305</v>
@@ -1932,7 +1933,7 @@
         <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
         <v>305</v>
@@ -1946,7 +1947,7 @@
         <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
         <v>305</v>
@@ -1960,7 +1961,7 @@
         <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
         <v>305</v>
@@ -1974,7 +1975,7 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
         <v>305</v>
@@ -1988,7 +1989,7 @@
         <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
         <v>305</v>
@@ -2002,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
         <v>305</v>
@@ -2016,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" t="s">
         <v>306</v>
@@ -2030,7 +2031,7 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s">
         <v>306</v>
@@ -2044,7 +2045,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
         <v>306</v>
@@ -2058,7 +2059,7 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D47" t="s">
         <v>306</v>
@@ -2072,7 +2073,7 @@
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D48" t="s">
         <v>306</v>
@@ -2086,7 +2087,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49" t="s">
         <v>306</v>
@@ -2100,7 +2101,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D50" t="s">
         <v>306</v>
@@ -2114,7 +2115,7 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51" t="s">
         <v>306</v>
@@ -2128,7 +2129,7 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D52" t="s">
         <v>306</v>
@@ -2142,7 +2143,7 @@
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" t="s">
         <v>306</v>
@@ -2156,7 +2157,7 @@
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
         <v>306</v>
@@ -2170,7 +2171,7 @@
         <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
         <v>306</v>
@@ -2184,7 +2185,7 @@
         <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D56" t="s">
         <v>306</v>
@@ -2198,7 +2199,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D57" t="s">
         <v>306</v>
@@ -2212,7 +2213,7 @@
         <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" t="s">
         <v>306</v>
@@ -2226,7 +2227,7 @@
         <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
         <v>306</v>
@@ -2240,7 +2241,7 @@
         <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D60" t="s">
         <v>306</v>
@@ -2254,7 +2255,7 @@
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D61" t="s">
         <v>306</v>
@@ -2268,7 +2269,7 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D62" t="s">
         <v>306</v>
@@ -2282,7 +2283,7 @@
         <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
         <v>306</v>
@@ -2296,7 +2297,7 @@
         <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D64" t="s">
         <v>306</v>
@@ -2310,7 +2311,7 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
         <v>306</v>
@@ -2324,7 +2325,7 @@
         <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D66" t="s">
         <v>306</v>
@@ -2338,7 +2339,7 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D67" t="s">
         <v>306</v>
@@ -2352,7 +2353,7 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
         <v>306</v>
@@ -2366,7 +2367,7 @@
         <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
         <v>306</v>
@@ -2380,7 +2381,7 @@
         <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D70" t="s">
         <v>306</v>
@@ -2394,7 +2395,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s">
         <v>307</v>
@@ -2408,7 +2409,7 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D72" t="s">
         <v>307</v>
@@ -2422,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
         <v>307</v>
@@ -2436,7 +2437,7 @@
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D74" t="s">
         <v>307</v>
@@ -2450,7 +2451,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D75" t="s">
         <v>307</v>
@@ -2464,7 +2465,7 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D76" t="s">
         <v>307</v>
@@ -2478,7 +2479,7 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D77" t="s">
         <v>307</v>
@@ -2492,7 +2493,7 @@
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D78" t="s">
         <v>307</v>
@@ -2506,7 +2507,7 @@
         <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D79" t="s">
         <v>307</v>
@@ -2520,7 +2521,7 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D80" t="s">
         <v>308</v>
@@ -2534,7 +2535,7 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D81" t="s">
         <v>307</v>
@@ -2548,7 +2549,7 @@
         <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D82" t="s">
         <v>307</v>
@@ -2562,7 +2563,7 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
@@ -2576,7 +2577,7 @@
         <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D84" t="s">
         <v>307</v>
@@ -2590,7 +2591,7 @@
         <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D85" t="s">
         <v>307</v>
@@ -2604,7 +2605,7 @@
         <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D86" t="s">
         <v>307</v>
@@ -2618,7 +2619,7 @@
         <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D87" t="s">
         <v>307</v>
@@ -2632,7 +2633,7 @@
         <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D88" t="s">
         <v>307</v>
@@ -2646,7 +2647,7 @@
         <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D89" t="s">
         <v>308</v>
@@ -2660,7 +2661,7 @@
         <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D90" t="s">
         <v>307</v>
@@ -2674,7 +2675,7 @@
         <v>242</v>
       </c>
       <c r="C91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D91" t="s">
         <v>307</v>
@@ -2688,7 +2689,7 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
         <v>307</v>
@@ -2702,7 +2703,7 @@
         <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D93" t="s">
         <v>307</v>
@@ -2716,7 +2717,7 @@
         <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" t="s">
         <v>307</v>
@@ -2730,7 +2731,7 @@
         <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D95" t="s">
         <v>307</v>
@@ -2744,7 +2745,7 @@
         <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D96" t="s">
         <v>307</v>
@@ -2758,7 +2759,7 @@
         <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D97" t="s">
         <v>307</v>
@@ -2772,7 +2773,7 @@
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
         <v>307</v>
@@ -2786,7 +2787,7 @@
         <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D99" t="s">
         <v>307</v>
@@ -2800,7 +2801,7 @@
         <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s">
         <v>307</v>
@@ -2814,7 +2815,7 @@
         <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D101" t="s">
         <v>307</v>
@@ -2828,7 +2829,7 @@
         <v>270</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s">
         <v>307</v>
@@ -2842,7 +2843,7 @@
         <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D103" t="s">
         <v>307</v>
@@ -2856,7 +2857,7 @@
         <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D104" t="s">
         <v>307</v>
@@ -2870,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D105" t="s">
         <v>307</v>
@@ -2884,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D106" t="s">
         <v>308</v>
@@ -2898,7 +2899,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D107" t="s">
         <v>308</v>
@@ -2912,7 +2913,7 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D108" t="s">
         <v>308</v>
@@ -2926,7 +2927,7 @@
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
         <v>308</v>
@@ -2940,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
@@ -2954,7 +2955,7 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
@@ -2968,7 +2969,7 @@
         <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D112" t="s">
         <v>308</v>
@@ -2982,7 +2983,7 @@
         <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
         <v>308</v>
@@ -2996,7 +2997,7 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
         <v>308</v>
@@ -3010,7 +3011,7 @@
         <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
         <v>308</v>
@@ -3024,7 +3025,7 @@
         <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D116" t="s">
         <v>308</v>
@@ -3038,7 +3039,7 @@
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
         <v>308</v>
@@ -3052,7 +3053,7 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
         <v>308</v>
@@ -3066,7 +3067,7 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
         <v>308</v>
@@ -3080,7 +3081,7 @@
         <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" t="s">
         <v>308</v>
@@ -3094,7 +3095,7 @@
         <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" t="s">
         <v>308</v>
@@ -3108,7 +3109,7 @@
         <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" t="s">
         <v>308</v>
@@ -3122,7 +3123,7 @@
         <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s">
         <v>308</v>
@@ -3136,7 +3137,7 @@
         <v>161</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" t="s">
         <v>308</v>
@@ -3150,7 +3151,7 @@
         <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D125" t="s">
         <v>308</v>
@@ -3164,7 +3165,7 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" t="s">
         <v>308</v>
@@ -3178,7 +3179,7 @@
         <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" t="s">
         <v>308</v>
@@ -3192,7 +3193,7 @@
         <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
         <v>308</v>
@@ -3206,7 +3207,7 @@
         <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D129" t="s">
         <v>308</v>
@@ -3220,7 +3221,7 @@
         <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D130" t="s">
         <v>308</v>
@@ -3234,7 +3235,7 @@
         <v>294</v>
       </c>
       <c r="C131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131" t="s">
         <v>308</v>
@@ -3248,7 +3249,7 @@
         <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" t="s">
         <v>308</v>
@@ -3262,7 +3263,7 @@
         <v>232</v>
       </c>
       <c r="C133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" t="s">
         <v>308</v>
@@ -3276,7 +3277,7 @@
         <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D134" t="s">
         <v>308</v>
@@ -3290,7 +3291,7 @@
         <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D135" t="s">
         <v>308</v>
@@ -3304,7 +3305,7 @@
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D136" t="s">
         <v>310</v>
@@ -3318,7 +3319,7 @@
         <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D137" t="s">
         <v>310</v>
@@ -3332,7 +3333,7 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D138" t="s">
         <v>310</v>
@@ -3346,7 +3347,7 @@
         <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D139" t="s">
         <v>310</v>
@@ -3360,7 +3361,7 @@
         <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D140" t="s">
         <v>310</v>
@@ -3374,7 +3375,7 @@
         <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D141" t="s">
         <v>310</v>
@@ -3388,7 +3389,7 @@
         <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D142" t="s">
         <v>310</v>
@@ -3402,7 +3403,7 @@
         <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D143" t="s">
         <v>310</v>
@@ -3416,7 +3417,7 @@
         <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D144" t="s">
         <v>310</v>
@@ -3430,7 +3431,7 @@
         <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D145" t="s">
         <v>310</v>
@@ -3444,7 +3445,7 @@
         <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D146" t="s">
         <v>309</v>
@@ -3458,7 +3459,7 @@
         <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D147" t="s">
         <v>309</v>
@@ -3472,7 +3473,7 @@
         <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s">
         <v>309</v>
@@ -3486,7 +3487,7 @@
         <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D149" t="s">
         <v>309</v>
@@ -3500,7 +3501,7 @@
         <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D150" t="s">
         <v>309</v>
@@ -3514,7 +3515,7 @@
         <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D151" t="s">
         <v>309</v>
@@ -3528,7 +3529,7 @@
         <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D152" t="s">
         <v>309</v>
@@ -3542,7 +3543,7 @@
         <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D153" t="s">
         <v>309</v>
@@ -3556,7 +3557,7 @@
         <v>271</v>
       </c>
       <c r="C154" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D154" t="s">
         <v>311</v>
@@ -3570,7 +3571,7 @@
         <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s">
         <v>309</v>
@@ -3584,7 +3585,7 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
         <v>309</v>
@@ -3598,7 +3599,7 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D157" t="s">
         <v>309</v>
@@ -3612,7 +3613,7 @@
         <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s">
         <v>309</v>
@@ -3626,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
         <v>311</v>
@@ -3640,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D160" t="s">
         <v>311</v>
@@ -3654,7 +3655,7 @@
         <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D161" t="s">
         <v>311</v>
@@ -3668,7 +3669,7 @@
         <v>96</v>
       </c>
       <c r="C162" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D162" t="s">
         <v>311</v>
@@ -3682,7 +3683,7 @@
         <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D163" t="s">
         <v>311</v>
@@ -3696,7 +3697,7 @@
         <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D164" t="s">
         <v>311</v>
@@ -3710,7 +3711,7 @@
         <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D165" t="s">
         <v>311</v>
@@ -3724,7 +3725,7 @@
         <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D166" t="s">
         <v>311</v>
@@ -3738,7 +3739,7 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D167" t="s">
         <v>311</v>
@@ -3752,7 +3753,7 @@
         <v>274</v>
       </c>
       <c r="C168" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D168" t="s">
         <v>311</v>
@@ -3766,7 +3767,7 @@
         <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D169" t="s">
         <v>311</v>
@@ -3780,7 +3781,7 @@
         <v>244</v>
       </c>
       <c r="C170" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D170" t="s">
         <v>311</v>
@@ -3794,10 +3795,10 @@
         <v>50</v>
       </c>
       <c r="C171" t="s">
+        <v>338</v>
+      </c>
+      <c r="D171" t="s">
         <v>339</v>
-      </c>
-      <c r="D171" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3808,10 +3809,10 @@
         <v>84</v>
       </c>
       <c r="C172" t="s">
+        <v>338</v>
+      </c>
+      <c r="D172" t="s">
         <v>339</v>
-      </c>
-      <c r="D172" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3822,10 +3823,10 @@
         <v>124</v>
       </c>
       <c r="C173" t="s">
+        <v>338</v>
+      </c>
+      <c r="D173" t="s">
         <v>339</v>
-      </c>
-      <c r="D173" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3836,10 +3837,10 @@
         <v>193</v>
       </c>
       <c r="C174" t="s">
+        <v>338</v>
+      </c>
+      <c r="D174" t="s">
         <v>339</v>
-      </c>
-      <c r="D174" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3850,10 +3851,10 @@
         <v>205</v>
       </c>
       <c r="C175" t="s">
+        <v>338</v>
+      </c>
+      <c r="D175" t="s">
         <v>339</v>
-      </c>
-      <c r="D175" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3864,10 +3865,10 @@
         <v>211</v>
       </c>
       <c r="C176" t="s">
+        <v>338</v>
+      </c>
+      <c r="D176" t="s">
         <v>339</v>
-      </c>
-      <c r="D176" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3878,10 +3879,10 @@
         <v>55</v>
       </c>
       <c r="C177" t="s">
+        <v>338</v>
+      </c>
+      <c r="D177" t="s">
         <v>339</v>
-      </c>
-      <c r="D177" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3892,10 +3893,10 @@
         <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3906,10 +3907,10 @@
         <v>126</v>
       </c>
       <c r="C179" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3920,10 +3921,10 @@
         <v>127</v>
       </c>
       <c r="C180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D180" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3934,10 +3935,10 @@
         <v>157</v>
       </c>
       <c r="C181" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3948,10 +3949,10 @@
         <v>162</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D182" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3962,10 +3963,10 @@
         <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D183" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3976,10 +3977,10 @@
         <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D184" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3990,10 +3991,10 @@
         <v>246</v>
       </c>
       <c r="C185" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4004,10 +4005,10 @@
         <v>61</v>
       </c>
       <c r="C186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D186" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4018,10 +4019,10 @@
         <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,10 +4033,10 @@
         <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,10 +4047,10 @@
         <v>217</v>
       </c>
       <c r="C189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4060,10 +4061,10 @@
         <v>229</v>
       </c>
       <c r="C190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4074,10 +4075,10 @@
         <v>253</v>
       </c>
       <c r="C191" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4088,10 +4089,10 @@
         <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D192" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4102,10 +4103,10 @@
         <v>280</v>
       </c>
       <c r="C193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D193" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4116,10 +4117,10 @@
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D194" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4130,7 +4131,7 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D195" t="s">
         <v>309</v>
@@ -4144,7 +4145,7 @@
         <v>56</v>
       </c>
       <c r="C196" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D196" t="s">
         <v>309</v>
@@ -4158,7 +4159,7 @@
         <v>140</v>
       </c>
       <c r="C197" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D197" t="s">
         <v>309</v>
@@ -4172,7 +4173,7 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D198" t="s">
         <v>309</v>
@@ -4186,7 +4187,7 @@
         <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D199" t="s">
         <v>309</v>
@@ -4200,10 +4201,10 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D200" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4214,10 +4215,10 @@
         <v>59</v>
       </c>
       <c r="C201" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D201" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4228,10 +4229,10 @@
         <v>82</v>
       </c>
       <c r="C202" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D202" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4242,10 +4243,10 @@
         <v>90</v>
       </c>
       <c r="C203" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,10 +4257,10 @@
         <v>109</v>
       </c>
       <c r="C204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4270,10 +4271,10 @@
         <v>156</v>
       </c>
       <c r="C205" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D205" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4284,10 +4285,10 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D206" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4298,10 +4299,10 @@
         <v>239</v>
       </c>
       <c r="C207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D207" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4312,10 +4313,10 @@
         <v>293</v>
       </c>
       <c r="C208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D208" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,10 +4327,10 @@
         <v>73</v>
       </c>
       <c r="C209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D209" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4340,10 +4341,10 @@
         <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D210" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4354,10 +4355,10 @@
         <v>53</v>
       </c>
       <c r="C211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D211" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,10 +4369,10 @@
         <v>60</v>
       </c>
       <c r="C212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D212" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,10 +4383,10 @@
         <v>94</v>
       </c>
       <c r="C213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D213" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4396,10 +4397,10 @@
         <v>151</v>
       </c>
       <c r="C214" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4410,10 +4411,10 @@
         <v>155</v>
       </c>
       <c r="C215" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D215" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4424,10 +4425,10 @@
         <v>266</v>
       </c>
       <c r="C216" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D216" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4438,10 +4439,10 @@
         <v>273</v>
       </c>
       <c r="C217" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4452,10 +4453,10 @@
         <v>276</v>
       </c>
       <c r="C218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D218" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4466,10 +4467,10 @@
         <v>287</v>
       </c>
       <c r="C219" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D219" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4480,10 +4481,10 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4494,10 +4495,10 @@
         <v>72</v>
       </c>
       <c r="C221" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D221" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4508,10 +4509,10 @@
         <v>133</v>
       </c>
       <c r="C222" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4522,10 +4523,10 @@
         <v>181</v>
       </c>
       <c r="C223" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D223" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4536,10 +4537,10 @@
         <v>238</v>
       </c>
       <c r="C224" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D224" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4550,10 +4551,10 @@
         <v>288</v>
       </c>
       <c r="C225" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D225" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4564,10 +4565,10 @@
         <v>57</v>
       </c>
       <c r="C226" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D226" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4578,10 +4579,10 @@
         <v>63</v>
       </c>
       <c r="C227" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D227" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4592,10 +4593,10 @@
         <v>75</v>
       </c>
       <c r="C228" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D228" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4606,10 +4607,10 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D229" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4620,10 +4621,10 @@
         <v>81</v>
       </c>
       <c r="C230" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D230" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4634,10 +4635,10 @@
         <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D231" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4648,10 +4649,10 @@
         <v>186</v>
       </c>
       <c r="C232" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D232" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4662,10 +4663,10 @@
         <v>189</v>
       </c>
       <c r="C233" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D233" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4676,10 +4677,10 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D234" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4690,10 +4691,10 @@
         <v>198</v>
       </c>
       <c r="C235" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D235" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,10 +4705,10 @@
         <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4718,10 +4719,10 @@
         <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D237" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4732,10 +4733,10 @@
         <v>267</v>
       </c>
       <c r="C238" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D238" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4746,10 +4747,10 @@
         <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D239" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4760,10 +4761,10 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D240" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4774,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D241" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4788,10 +4789,10 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D242" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4802,10 +4803,10 @@
         <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D243" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4816,10 +4817,10 @@
         <v>226</v>
       </c>
       <c r="C244" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D244" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4830,10 +4831,10 @@
         <v>47</v>
       </c>
       <c r="C245" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D245" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4844,10 +4845,10 @@
         <v>137</v>
       </c>
       <c r="C246" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D246" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4858,10 +4859,10 @@
         <v>282</v>
       </c>
       <c r="C247" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4872,10 +4873,10 @@
         <v>118</v>
       </c>
       <c r="C248" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D248" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4886,10 +4887,10 @@
         <v>165</v>
       </c>
       <c r="C249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D249" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4900,10 +4901,10 @@
         <v>177</v>
       </c>
       <c r="C250" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D250" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4914,10 +4915,10 @@
         <v>298</v>
       </c>
       <c r="C251" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4928,10 +4929,10 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D252" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4942,10 +4943,10 @@
         <v>34</v>
       </c>
       <c r="C253" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D253" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4956,10 +4957,10 @@
         <v>148</v>
       </c>
       <c r="C254" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D254" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4970,10 +4971,10 @@
         <v>171</v>
       </c>
       <c r="C255" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D255" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4984,10 +4985,10 @@
         <v>236</v>
       </c>
       <c r="C256" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D256" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4998,10 +4999,10 @@
         <v>241</v>
       </c>
       <c r="C257" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D257" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5012,10 +5013,10 @@
         <v>248</v>
       </c>
       <c r="C258" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D258" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5026,10 +5027,10 @@
         <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D259" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5040,10 +5041,10 @@
         <v>18</v>
       </c>
       <c r="C260" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D260" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5054,10 +5055,10 @@
         <v>29</v>
       </c>
       <c r="C261" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D261" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5068,10 +5069,10 @@
         <v>64</v>
       </c>
       <c r="C262" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D262" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5082,10 +5083,10 @@
         <v>80</v>
       </c>
       <c r="C263" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D263" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5096,10 +5097,10 @@
         <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D264" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5110,10 +5111,10 @@
         <v>91</v>
       </c>
       <c r="C265" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D265" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5124,10 +5125,10 @@
         <v>97</v>
       </c>
       <c r="C266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D266" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5138,10 +5139,10 @@
         <v>105</v>
       </c>
       <c r="C267" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D267" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5152,10 +5153,10 @@
         <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D268" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5166,10 +5167,10 @@
         <v>176</v>
       </c>
       <c r="C269" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D269" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5180,10 +5181,10 @@
         <v>200</v>
       </c>
       <c r="C270" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D270" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5194,10 +5195,10 @@
         <v>243</v>
       </c>
       <c r="C271" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D271" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5208,10 +5209,10 @@
         <v>252</v>
       </c>
       <c r="C272" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D272" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5222,10 +5223,10 @@
         <v>291</v>
       </c>
       <c r="C273" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D273" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5236,10 +5237,10 @@
         <v>297</v>
       </c>
       <c r="C274" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D274" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5250,10 +5251,10 @@
         <v>93</v>
       </c>
       <c r="C275" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D275" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5264,10 +5265,10 @@
         <v>110</v>
       </c>
       <c r="C276" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D276" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5278,10 +5279,10 @@
         <v>38</v>
       </c>
       <c r="C277" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D277" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5292,10 +5293,10 @@
         <v>51</v>
       </c>
       <c r="C278" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5306,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="C279" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D279" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5320,10 +5321,10 @@
         <v>172</v>
       </c>
       <c r="C280" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D280" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5334,10 +5335,10 @@
         <v>178</v>
       </c>
       <c r="C281" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D281" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5348,10 +5349,10 @@
         <v>215</v>
       </c>
       <c r="C282" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D282" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5362,10 +5363,10 @@
         <v>95</v>
       </c>
       <c r="C283" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D283" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5376,10 +5377,10 @@
         <v>98</v>
       </c>
       <c r="C284" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D284" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5390,10 +5391,10 @@
         <v>119</v>
       </c>
       <c r="C285" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D285" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5404,10 +5405,10 @@
         <v>68</v>
       </c>
       <c r="C286" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D286" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5418,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D287" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5432,10 +5433,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D288" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5446,10 +5447,10 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D289" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5460,10 +5461,10 @@
         <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D290" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5474,10 +5475,10 @@
         <v>43</v>
       </c>
       <c r="C291" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D291" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5488,10 +5489,10 @@
         <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D292" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5502,10 +5503,10 @@
         <v>108</v>
       </c>
       <c r="C293" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D293" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5516,10 +5517,10 @@
         <v>114</v>
       </c>
       <c r="C294" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D294" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5530,10 +5531,10 @@
         <v>145</v>
       </c>
       <c r="C295" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D295" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5544,10 +5545,10 @@
         <v>152</v>
       </c>
       <c r="C296" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D296" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5558,10 +5559,10 @@
         <v>223</v>
       </c>
       <c r="C297" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D297" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5572,10 +5573,10 @@
         <v>256</v>
       </c>
       <c r="C298" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D298" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5586,10 +5587,10 @@
         <v>269</v>
       </c>
       <c r="C299" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D299" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,10 +5601,10 @@
         <v>179</v>
       </c>
       <c r="C300" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D300" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5614,10 +5615,10 @@
         <v>263</v>
       </c>
       <c r="C301" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D301" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5628,10 +5629,10 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D302" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5642,15 +5643,15 @@
         <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D303" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D301">
-    <sortState ref="A2:D323">
+  <autoFilter ref="A1:D301" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D323">
       <sortCondition ref="A1:A323"/>
     </sortState>
   </autoFilter>

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E7438-DEAC-49F1-986A-89C201DBDC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1052,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1398,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171:D177"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,10 +1820,10 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5650,8 +5649,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D301" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D323">
+  <autoFilter ref="A1:D301">
+    <sortState ref="A2:D323">
       <sortCondition ref="A1:A323"/>
     </sortState>
   </autoFilter>

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,10 +1820,10 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF4841-96A1-41DE-B3FF-A125D9FAB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="27096" yWindow="1908" windowWidth="13272" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="341">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -986,9 +987,6 @@
     <t>Referentieregio onbekend (Vlaanderen)</t>
   </si>
   <si>
-    <t>Referentieregio onbekend</t>
-  </si>
-  <si>
     <t>REFREG</t>
   </si>
   <si>
@@ -1047,12 +1045,18 @@
   </si>
   <si>
     <t>Middenkust</t>
+  </si>
+  <si>
+    <t>gemeente onbekend (Brussel)</t>
+  </si>
+  <si>
+    <t>Buiten Vlaanderen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,16 +1401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -1414,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
         <v>320</v>
       </c>
-      <c r="D1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -1428,13 +1432,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -1442,13 +1446,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11004</v>
       </c>
@@ -1456,13 +1460,13 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11005</v>
       </c>
@@ -1470,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11007</v>
       </c>
@@ -1484,13 +1488,13 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11008</v>
       </c>
@@ -1498,13 +1502,13 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11009</v>
       </c>
@@ -1512,13 +1516,13 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11013</v>
       </c>
@@ -1526,13 +1530,13 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11016</v>
       </c>
@@ -1540,13 +1544,13 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11018</v>
       </c>
@@ -1554,13 +1558,13 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11021</v>
       </c>
@@ -1568,13 +1572,13 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11022</v>
       </c>
@@ -1582,13 +1586,13 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11023</v>
       </c>
@@ -1596,13 +1600,13 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11024</v>
       </c>
@@ -1610,13 +1614,13 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D15" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11025</v>
       </c>
@@ -1624,13 +1628,13 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11029</v>
       </c>
@@ -1638,13 +1642,13 @@
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11030</v>
       </c>
@@ -1652,13 +1656,13 @@
         <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11035</v>
       </c>
@@ -1666,13 +1670,13 @@
         <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11037</v>
       </c>
@@ -1680,13 +1684,13 @@
         <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11038</v>
       </c>
@@ -1694,13 +1698,13 @@
         <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11039</v>
       </c>
@@ -1708,13 +1712,13 @@
         <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11040</v>
       </c>
@@ -1722,13 +1726,13 @@
         <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11044</v>
       </c>
@@ -1736,13 +1740,13 @@
         <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11050</v>
       </c>
@@ -1750,13 +1754,13 @@
         <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11052</v>
       </c>
@@ -1764,13 +1768,13 @@
         <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11053</v>
       </c>
@@ -1778,13 +1782,13 @@
         <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11054</v>
       </c>
@@ -1792,13 +1796,13 @@
         <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11055</v>
       </c>
@@ -1806,13 +1810,13 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D29" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11056</v>
       </c>
@@ -1820,13 +1824,13 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11057</v>
       </c>
@@ -1834,13 +1838,13 @@
         <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -1848,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12005</v>
       </c>
@@ -1862,13 +1866,13 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12007</v>
       </c>
@@ -1876,13 +1880,13 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12009</v>
       </c>
@@ -1890,13 +1894,13 @@
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12014</v>
       </c>
@@ -1904,13 +1908,13 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D36" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12021</v>
       </c>
@@ -1918,13 +1922,13 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12025</v>
       </c>
@@ -1932,13 +1936,13 @@
         <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12026</v>
       </c>
@@ -1946,13 +1950,13 @@
         <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12029</v>
       </c>
@@ -1960,13 +1964,13 @@
         <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12035</v>
       </c>
@@ -1974,13 +1978,13 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12040</v>
       </c>
@@ -1988,13 +1992,13 @@
         <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12041</v>
       </c>
@@ -2002,13 +2006,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13001</v>
       </c>
@@ -2016,13 +2020,13 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13002</v>
       </c>
@@ -2030,13 +2034,13 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D45" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13003</v>
       </c>
@@ -2044,13 +2048,13 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D46" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13004</v>
       </c>
@@ -2058,13 +2062,13 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13006</v>
       </c>
@@ -2072,13 +2076,13 @@
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13008</v>
       </c>
@@ -2086,13 +2090,13 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D49" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13010</v>
       </c>
@@ -2100,13 +2104,13 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>13011</v>
       </c>
@@ -2114,13 +2118,13 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D51" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13012</v>
       </c>
@@ -2128,13 +2132,13 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D52" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13013</v>
       </c>
@@ -2142,13 +2146,13 @@
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13014</v>
       </c>
@@ -2156,13 +2160,13 @@
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13016</v>
       </c>
@@ -2170,13 +2174,13 @@
         <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D55" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>13017</v>
       </c>
@@ -2184,13 +2188,13 @@
         <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13019</v>
       </c>
@@ -2198,13 +2202,13 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D57" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13021</v>
       </c>
@@ -2212,13 +2216,13 @@
         <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13023</v>
       </c>
@@ -2226,13 +2230,13 @@
         <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D59" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13025</v>
       </c>
@@ -2240,13 +2244,13 @@
         <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D60" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13029</v>
       </c>
@@ -2254,13 +2258,13 @@
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D61" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13031</v>
       </c>
@@ -2268,13 +2272,13 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D62" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13035</v>
       </c>
@@ -2282,13 +2286,13 @@
         <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D63" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13036</v>
       </c>
@@ -2296,13 +2300,13 @@
         <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13037</v>
       </c>
@@ -2310,13 +2314,13 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D65" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13040</v>
       </c>
@@ -2324,13 +2328,13 @@
         <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D66" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13044</v>
       </c>
@@ -2338,13 +2342,13 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D67" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13046</v>
       </c>
@@ -2352,13 +2356,13 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D68" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13049</v>
       </c>
@@ -2366,13 +2370,13 @@
         <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D69" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13053</v>
       </c>
@@ -2380,13 +2384,13 @@
         <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D70" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>23002</v>
       </c>
@@ -2394,13 +2398,13 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23003</v>
       </c>
@@ -2408,13 +2412,13 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23009</v>
       </c>
@@ -2422,13 +2426,13 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23016</v>
       </c>
@@ -2436,13 +2440,13 @@
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D74" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23023</v>
       </c>
@@ -2450,13 +2454,13 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23024</v>
       </c>
@@ -2464,13 +2468,13 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D76" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23025</v>
       </c>
@@ -2478,13 +2482,13 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23027</v>
       </c>
@@ -2492,13 +2496,13 @@
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D78" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23032</v>
       </c>
@@ -2506,13 +2510,13 @@
         <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>23033</v>
       </c>
@@ -2520,13 +2524,13 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D80" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23038</v>
       </c>
@@ -2534,13 +2538,13 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>23039</v>
       </c>
@@ -2548,13 +2552,13 @@
         <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D82" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>23044</v>
       </c>
@@ -2562,13 +2566,13 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D83" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23045</v>
       </c>
@@ -2576,13 +2580,13 @@
         <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D84" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>23047</v>
       </c>
@@ -2590,13 +2594,13 @@
         <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D85" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23050</v>
       </c>
@@ -2604,13 +2608,13 @@
         <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23052</v>
       </c>
@@ -2618,13 +2622,13 @@
         <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D87" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23060</v>
       </c>
@@ -2632,13 +2636,13 @@
         <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D88" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23062</v>
       </c>
@@ -2646,13 +2650,13 @@
         <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D89" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23064</v>
       </c>
@@ -2660,13 +2664,13 @@
         <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23077</v>
       </c>
@@ -2674,13 +2678,13 @@
         <v>242</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23081</v>
       </c>
@@ -2688,13 +2692,13 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23086</v>
       </c>
@@ -2702,13 +2706,13 @@
         <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D93" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23088</v>
       </c>
@@ -2716,13 +2720,13 @@
         <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D94" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23094</v>
       </c>
@@ -2730,13 +2734,13 @@
         <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D95" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>23096</v>
       </c>
@@ -2744,13 +2748,13 @@
         <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23097</v>
       </c>
@@ -2758,13 +2762,13 @@
         <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23098</v>
       </c>
@@ -2772,13 +2776,13 @@
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D98" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23099</v>
       </c>
@@ -2786,13 +2790,13 @@
         <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>23100</v>
       </c>
@@ -2800,13 +2804,13 @@
         <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23101</v>
       </c>
@@ -2814,13 +2818,13 @@
         <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D101" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23102</v>
       </c>
@@ -2828,13 +2832,13 @@
         <v>270</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D102" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23103</v>
       </c>
@@ -2842,13 +2846,13 @@
         <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D103" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23104</v>
       </c>
@@ -2856,13 +2860,13 @@
         <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D104" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23105</v>
       </c>
@@ -2870,13 +2874,13 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24001</v>
       </c>
@@ -2884,13 +2888,13 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24007</v>
       </c>
@@ -2898,13 +2902,13 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D107" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24008</v>
       </c>
@@ -2912,13 +2916,13 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D108" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>24009</v>
       </c>
@@ -2926,13 +2930,13 @@
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D109" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>24011</v>
       </c>
@@ -2940,13 +2944,13 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D110" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>24014</v>
       </c>
@@ -2954,13 +2958,13 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D111" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>24016</v>
       </c>
@@ -2968,13 +2972,13 @@
         <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D112" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24020</v>
       </c>
@@ -2982,13 +2986,13 @@
         <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D113" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24028</v>
       </c>
@@ -2996,13 +3000,13 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>24033</v>
       </c>
@@ -3010,13 +3014,13 @@
         <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24038</v>
       </c>
@@ -3024,13 +3028,13 @@
         <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24041</v>
       </c>
@@ -3038,13 +3042,13 @@
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24043</v>
       </c>
@@ -3052,13 +3056,13 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24045</v>
       </c>
@@ -3066,13 +3070,13 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24048</v>
       </c>
@@ -3080,13 +3084,13 @@
         <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24054</v>
       </c>
@@ -3094,13 +3098,13 @@
         <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24055</v>
       </c>
@@ -3108,13 +3112,13 @@
         <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24059</v>
       </c>
@@ -3122,13 +3126,13 @@
         <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24062</v>
       </c>
@@ -3136,13 +3140,13 @@
         <v>161</v>
       </c>
       <c r="C124" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24066</v>
       </c>
@@ -3150,13 +3154,13 @@
         <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D125" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24086</v>
       </c>
@@ -3164,13 +3168,13 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D126" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24094</v>
       </c>
@@ -3178,13 +3182,13 @@
         <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24104</v>
       </c>
@@ -3192,13 +3196,13 @@
         <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D128" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24107</v>
       </c>
@@ -3206,13 +3210,13 @@
         <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D129" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24109</v>
       </c>
@@ -3220,13 +3224,13 @@
         <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D130" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24130</v>
       </c>
@@ -3234,13 +3238,13 @@
         <v>294</v>
       </c>
       <c r="C131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D131" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24133</v>
       </c>
@@ -3248,13 +3252,13 @@
         <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D132" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24134</v>
       </c>
@@ -3262,13 +3266,13 @@
         <v>232</v>
       </c>
       <c r="C133" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D133" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24135</v>
       </c>
@@ -3276,13 +3280,13 @@
         <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D134" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24137</v>
       </c>
@@ -3290,13 +3294,13 @@
         <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D135" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>31003</v>
       </c>
@@ -3304,13 +3308,13 @@
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D136" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>31004</v>
       </c>
@@ -3318,13 +3322,13 @@
         <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D137" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>31005</v>
       </c>
@@ -3332,13 +3336,13 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D138" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>31006</v>
       </c>
@@ -3346,13 +3350,13 @@
         <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D139" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>31012</v>
       </c>
@@ -3360,13 +3364,13 @@
         <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D140" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>31022</v>
       </c>
@@ -3374,13 +3378,13 @@
         <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D141" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>31033</v>
       </c>
@@ -3388,13 +3392,13 @@
         <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D142" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>31040</v>
       </c>
@@ -3402,13 +3406,13 @@
         <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D143" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>31042</v>
       </c>
@@ -3416,13 +3420,13 @@
         <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D144" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>31043</v>
       </c>
@@ -3430,13 +3434,13 @@
         <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D145" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>32003</v>
       </c>
@@ -3444,13 +3448,13 @@
         <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D146" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>32006</v>
       </c>
@@ -3458,13 +3462,13 @@
         <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D147" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>32010</v>
       </c>
@@ -3472,13 +3476,13 @@
         <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D148" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>32011</v>
       </c>
@@ -3486,13 +3490,13 @@
         <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D149" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>32030</v>
       </c>
@@ -3500,13 +3504,13 @@
         <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D150" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>33011</v>
       </c>
@@ -3514,13 +3518,13 @@
         <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D151" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>33016</v>
       </c>
@@ -3528,13 +3532,13 @@
         <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D152" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>33021</v>
       </c>
@@ -3542,13 +3546,13 @@
         <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D153" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>33029</v>
       </c>
@@ -3556,13 +3560,13 @@
         <v>271</v>
       </c>
       <c r="C154" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D154" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>33037</v>
       </c>
@@ -3570,13 +3574,13 @@
         <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D155" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33039</v>
       </c>
@@ -3584,13 +3588,13 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D156" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>33040</v>
       </c>
@@ -3598,13 +3602,13 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D157" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>33041</v>
       </c>
@@ -3612,13 +3616,13 @@
         <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D158" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>34002</v>
       </c>
@@ -3626,13 +3630,13 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>34003</v>
       </c>
@@ -3640,13 +3644,13 @@
         <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D160" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>34009</v>
       </c>
@@ -3654,13 +3658,13 @@
         <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D161" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>34013</v>
       </c>
@@ -3668,13 +3672,13 @@
         <v>96</v>
       </c>
       <c r="C162" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D162" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>34022</v>
       </c>
@@ -3682,13 +3686,13 @@
         <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D163" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>34023</v>
       </c>
@@ -3696,13 +3700,13 @@
         <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D164" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>34025</v>
       </c>
@@ -3710,13 +3714,13 @@
         <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D165" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>34027</v>
       </c>
@@ -3724,13 +3728,13 @@
         <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D166" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>34040</v>
       </c>
@@ -3738,13 +3742,13 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D167" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>34041</v>
       </c>
@@ -3752,13 +3756,13 @@
         <v>274</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D168" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>34042</v>
       </c>
@@ -3766,13 +3770,13 @@
         <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D169" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>34043</v>
       </c>
@@ -3780,13 +3784,13 @@
         <v>244</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D170" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>35002</v>
       </c>
@@ -3794,13 +3798,13 @@
         <v>50</v>
       </c>
       <c r="C171" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" t="s">
         <v>338</v>
       </c>
-      <c r="D171" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>35005</v>
       </c>
@@ -3808,13 +3812,13 @@
         <v>84</v>
       </c>
       <c r="C172" t="s">
+        <v>337</v>
+      </c>
+      <c r="D172" t="s">
         <v>338</v>
       </c>
-      <c r="D172" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>35006</v>
       </c>
@@ -3822,13 +3826,13 @@
         <v>124</v>
       </c>
       <c r="C173" t="s">
+        <v>337</v>
+      </c>
+      <c r="D173" t="s">
         <v>338</v>
       </c>
-      <c r="D173" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>35011</v>
       </c>
@@ -3836,13 +3840,13 @@
         <v>193</v>
       </c>
       <c r="C174" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" t="s">
         <v>338</v>
       </c>
-      <c r="D174" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>35013</v>
       </c>
@@ -3850,13 +3854,13 @@
         <v>205</v>
       </c>
       <c r="C175" t="s">
+        <v>337</v>
+      </c>
+      <c r="D175" t="s">
         <v>338</v>
       </c>
-      <c r="D175" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>35014</v>
       </c>
@@ -3864,13 +3868,13 @@
         <v>211</v>
       </c>
       <c r="C176" t="s">
+        <v>337</v>
+      </c>
+      <c r="D176" t="s">
         <v>338</v>
       </c>
-      <c r="D176" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>35029</v>
       </c>
@@ -3878,13 +3882,13 @@
         <v>55</v>
       </c>
       <c r="C177" t="s">
+        <v>337</v>
+      </c>
+      <c r="D177" t="s">
         <v>338</v>
       </c>
-      <c r="D177" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>36006</v>
       </c>
@@ -3892,13 +3896,13 @@
         <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D178" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>36007</v>
       </c>
@@ -3906,13 +3910,13 @@
         <v>126</v>
       </c>
       <c r="C179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D179" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>36008</v>
       </c>
@@ -3920,13 +3924,13 @@
         <v>127</v>
       </c>
       <c r="C180" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D180" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>36010</v>
       </c>
@@ -3934,13 +3938,13 @@
         <v>157</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D181" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>36011</v>
       </c>
@@ -3948,13 +3952,13 @@
         <v>162</v>
       </c>
       <c r="C182" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D182" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>36012</v>
       </c>
@@ -3962,13 +3966,13 @@
         <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D183" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>36015</v>
       </c>
@@ -3976,13 +3980,13 @@
         <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D184" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>36019</v>
       </c>
@@ -3990,13 +3994,13 @@
         <v>246</v>
       </c>
       <c r="C185" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D185" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>37002</v>
       </c>
@@ -4004,13 +4008,13 @@
         <v>61</v>
       </c>
       <c r="C186" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D186" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>37007</v>
       </c>
@@ -4018,13 +4022,13 @@
         <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D187" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>37010</v>
       </c>
@@ -4032,13 +4036,13 @@
         <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D188" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>37011</v>
       </c>
@@ -4046,13 +4050,13 @@
         <v>217</v>
       </c>
       <c r="C189" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D189" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>37012</v>
       </c>
@@ -4060,13 +4064,13 @@
         <v>229</v>
       </c>
       <c r="C190" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D190" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>37015</v>
       </c>
@@ -4074,13 +4078,13 @@
         <v>253</v>
       </c>
       <c r="C191" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D191" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>37017</v>
       </c>
@@ -4088,13 +4092,13 @@
         <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D192" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>37018</v>
       </c>
@@ -4102,13 +4106,13 @@
         <v>280</v>
       </c>
       <c r="C193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D193" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>37020</v>
       </c>
@@ -4116,13 +4120,13 @@
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D194" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>38002</v>
       </c>
@@ -4130,13 +4134,13 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D195" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>38008</v>
       </c>
@@ -4144,13 +4148,13 @@
         <v>56</v>
       </c>
       <c r="C196" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D196" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>38014</v>
       </c>
@@ -4158,13 +4162,13 @@
         <v>140</v>
       </c>
       <c r="C197" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D197" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>38016</v>
       </c>
@@ -4172,13 +4176,13 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D198" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>38025</v>
       </c>
@@ -4186,13 +4190,13 @@
         <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D199" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>41002</v>
       </c>
@@ -4200,13 +4204,13 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D200" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>41011</v>
       </c>
@@ -4214,13 +4218,13 @@
         <v>59</v>
       </c>
       <c r="C201" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D201" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>41018</v>
       </c>
@@ -4228,13 +4232,13 @@
         <v>82</v>
       </c>
       <c r="C202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D202" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>41024</v>
       </c>
@@ -4242,13 +4246,13 @@
         <v>90</v>
       </c>
       <c r="C203" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D203" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>41027</v>
       </c>
@@ -4256,13 +4260,13 @@
         <v>109</v>
       </c>
       <c r="C204" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D204" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>41034</v>
       </c>
@@ -4270,13 +4274,13 @@
         <v>156</v>
       </c>
       <c r="C205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D205" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>41048</v>
       </c>
@@ -4284,13 +4288,13 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D206" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>41063</v>
       </c>
@@ -4298,13 +4302,13 @@
         <v>239</v>
       </c>
       <c r="C207" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D207" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>41081</v>
       </c>
@@ -4312,13 +4316,13 @@
         <v>293</v>
       </c>
       <c r="C208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D208" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>41082</v>
       </c>
@@ -4326,13 +4330,13 @@
         <v>73</v>
       </c>
       <c r="C209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D209" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>42003</v>
       </c>
@@ -4340,13 +4344,13 @@
         <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D210" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>42004</v>
       </c>
@@ -4354,13 +4358,13 @@
         <v>53</v>
       </c>
       <c r="C211" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D211" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>42006</v>
       </c>
@@ -4368,13 +4372,13 @@
         <v>60</v>
       </c>
       <c r="C212" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D212" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>42008</v>
       </c>
@@ -4382,13 +4386,13 @@
         <v>94</v>
       </c>
       <c r="C213" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D213" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>42010</v>
       </c>
@@ -4396,13 +4400,13 @@
         <v>151</v>
       </c>
       <c r="C214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D214" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>42011</v>
       </c>
@@ -4410,13 +4414,13 @@
         <v>155</v>
       </c>
       <c r="C215" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D215" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42023</v>
       </c>
@@ -4424,13 +4428,13 @@
         <v>266</v>
       </c>
       <c r="C216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D216" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>42025</v>
       </c>
@@ -4438,13 +4442,13 @@
         <v>273</v>
       </c>
       <c r="C217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D217" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>42026</v>
       </c>
@@ -4452,13 +4456,13 @@
         <v>276</v>
       </c>
       <c r="C218" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D218" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>42028</v>
       </c>
@@ -4466,13 +4470,13 @@
         <v>287</v>
       </c>
       <c r="C219" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D219" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>43002</v>
       </c>
@@ -4480,13 +4484,13 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D220" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>43005</v>
       </c>
@@ -4494,13 +4498,13 @@
         <v>72</v>
       </c>
       <c r="C221" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D221" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>43007</v>
       </c>
@@ -4508,13 +4512,13 @@
         <v>133</v>
       </c>
       <c r="C222" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D222" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>43010</v>
       </c>
@@ -4522,13 +4526,13 @@
         <v>181</v>
       </c>
       <c r="C223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D223" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>43014</v>
       </c>
@@ -4536,13 +4540,13 @@
         <v>238</v>
       </c>
       <c r="C224" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D224" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>43018</v>
       </c>
@@ -4550,13 +4554,13 @@
         <v>288</v>
       </c>
       <c r="C225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D225" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>44012</v>
       </c>
@@ -4564,13 +4568,13 @@
         <v>57</v>
       </c>
       <c r="C226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D226" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>44013</v>
       </c>
@@ -4578,13 +4582,13 @@
         <v>63</v>
       </c>
       <c r="C227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D227" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>44019</v>
       </c>
@@ -4592,13 +4596,13 @@
         <v>75</v>
       </c>
       <c r="C228" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D228" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>44020</v>
       </c>
@@ -4606,13 +4610,13 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D229" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>44021</v>
       </c>
@@ -4620,13 +4624,13 @@
         <v>81</v>
       </c>
       <c r="C230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D230" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>44034</v>
       </c>
@@ -4634,13 +4638,13 @@
         <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D231" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>44040</v>
       </c>
@@ -4648,13 +4652,13 @@
         <v>186</v>
       </c>
       <c r="C232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D232" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>44043</v>
       </c>
@@ -4662,13 +4666,13 @@
         <v>189</v>
       </c>
       <c r="C233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D233" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>44045</v>
       </c>
@@ -4676,13 +4680,13 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D234" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>44048</v>
       </c>
@@ -4690,13 +4694,13 @@
         <v>198</v>
       </c>
       <c r="C235" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D235" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>44052</v>
       </c>
@@ -4704,13 +4708,13 @@
         <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D236" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>44064</v>
       </c>
@@ -4718,13 +4722,13 @@
         <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D237" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>44073</v>
       </c>
@@ -4732,13 +4736,13 @@
         <v>267</v>
       </c>
       <c r="C238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D238" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>44081</v>
       </c>
@@ -4746,13 +4750,13 @@
         <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D239" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>44083</v>
       </c>
@@ -4760,13 +4764,13 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D240" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>44084</v>
       </c>
@@ -4774,13 +4778,13 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D241" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>44085</v>
       </c>
@@ -4788,13 +4792,13 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D242" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>45035</v>
       </c>
@@ -4802,13 +4806,13 @@
         <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D243" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>45041</v>
       </c>
@@ -4816,13 +4820,13 @@
         <v>226</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D244" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45059</v>
       </c>
@@ -4830,13 +4834,13 @@
         <v>47</v>
       </c>
       <c r="C245" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D245" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45060</v>
       </c>
@@ -4844,13 +4848,13 @@
         <v>137</v>
       </c>
       <c r="C246" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D246" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>45061</v>
       </c>
@@ -4858,13 +4862,13 @@
         <v>282</v>
       </c>
       <c r="C247" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D247" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>45062</v>
       </c>
@@ -4872,13 +4876,13 @@
         <v>118</v>
       </c>
       <c r="C248" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D248" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>45063</v>
       </c>
@@ -4886,13 +4890,13 @@
         <v>165</v>
       </c>
       <c r="C249" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D249" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>45064</v>
       </c>
@@ -4900,13 +4904,13 @@
         <v>177</v>
       </c>
       <c r="C250" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D250" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>45065</v>
       </c>
@@ -4914,13 +4918,13 @@
         <v>298</v>
       </c>
       <c r="C251" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D251" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>45068</v>
       </c>
@@ -4928,13 +4932,13 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D252" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46003</v>
       </c>
@@ -4942,13 +4946,13 @@
         <v>34</v>
       </c>
       <c r="C253" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D253" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>46013</v>
       </c>
@@ -4956,13 +4960,13 @@
         <v>148</v>
       </c>
       <c r="C254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D254" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>46014</v>
       </c>
@@ -4970,13 +4974,13 @@
         <v>171</v>
       </c>
       <c r="C255" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D255" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>46020</v>
       </c>
@@ -4984,13 +4988,13 @@
         <v>236</v>
       </c>
       <c r="C256" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D256" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>46021</v>
       </c>
@@ -4998,13 +5002,13 @@
         <v>241</v>
       </c>
       <c r="C257" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D257" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>46024</v>
       </c>
@@ -5012,13 +5016,13 @@
         <v>248</v>
       </c>
       <c r="C258" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D258" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>46025</v>
       </c>
@@ -5026,13 +5030,13 @@
         <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D259" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>71002</v>
       </c>
@@ -5040,13 +5044,13 @@
         <v>18</v>
       </c>
       <c r="C260" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D260" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>71004</v>
       </c>
@@ -5054,13 +5058,13 @@
         <v>29</v>
       </c>
       <c r="C261" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D261" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>71011</v>
       </c>
@@ -5068,13 +5072,13 @@
         <v>64</v>
       </c>
       <c r="C262" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D262" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>71016</v>
       </c>
@@ -5082,13 +5086,13 @@
         <v>80</v>
       </c>
       <c r="C263" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D263" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>71017</v>
       </c>
@@ -5096,13 +5100,13 @@
         <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D264" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>71020</v>
       </c>
@@ -5110,13 +5114,13 @@
         <v>91</v>
       </c>
       <c r="C265" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D265" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>71022</v>
       </c>
@@ -5124,13 +5128,13 @@
         <v>97</v>
       </c>
       <c r="C266" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D266" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>71024</v>
       </c>
@@ -5138,13 +5142,13 @@
         <v>105</v>
       </c>
       <c r="C267" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D267" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>71034</v>
       </c>
@@ -5152,13 +5156,13 @@
         <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D268" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>71037</v>
       </c>
@@ -5166,13 +5170,13 @@
         <v>176</v>
       </c>
       <c r="C269" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D269" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>71045</v>
       </c>
@@ -5180,13 +5184,13 @@
         <v>200</v>
       </c>
       <c r="C270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D270" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>71053</v>
       </c>
@@ -5194,13 +5198,13 @@
         <v>243</v>
       </c>
       <c r="C271" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D271" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>71057</v>
       </c>
@@ -5208,13 +5212,13 @@
         <v>252</v>
       </c>
       <c r="C272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D272" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>71066</v>
       </c>
@@ -5222,13 +5226,13 @@
         <v>291</v>
       </c>
       <c r="C273" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D273" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>71067</v>
       </c>
@@ -5236,13 +5240,13 @@
         <v>297</v>
       </c>
       <c r="C274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D274" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>71069</v>
       </c>
@@ -5250,13 +5254,13 @@
         <v>93</v>
       </c>
       <c r="C275" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D275" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>71070</v>
       </c>
@@ -5264,13 +5268,13 @@
         <v>110</v>
       </c>
       <c r="C276" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D276" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>72003</v>
       </c>
@@ -5278,13 +5282,13 @@
         <v>38</v>
       </c>
       <c r="C277" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D277" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>72004</v>
       </c>
@@ -5292,13 +5296,13 @@
         <v>51</v>
       </c>
       <c r="C278" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D278" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>72018</v>
       </c>
@@ -5306,13 +5310,13 @@
         <v>136</v>
       </c>
       <c r="C279" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D279" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>72020</v>
       </c>
@@ -5320,13 +5324,13 @@
         <v>172</v>
       </c>
       <c r="C280" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D280" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>72021</v>
       </c>
@@ -5334,13 +5338,13 @@
         <v>178</v>
       </c>
       <c r="C281" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D281" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>72030</v>
       </c>
@@ -5348,13 +5352,13 @@
         <v>215</v>
       </c>
       <c r="C282" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D282" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>72037</v>
       </c>
@@ -5362,13 +5366,13 @@
         <v>95</v>
       </c>
       <c r="C283" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D283" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>72038</v>
       </c>
@@ -5376,13 +5380,13 @@
         <v>98</v>
       </c>
       <c r="C284" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D284" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>72039</v>
       </c>
@@ -5390,13 +5394,13 @@
         <v>119</v>
       </c>
       <c r="C285" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D285" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>72041</v>
       </c>
@@ -5404,13 +5408,13 @@
         <v>68</v>
       </c>
       <c r="C286" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D286" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>72042</v>
       </c>
@@ -5418,13 +5422,13 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D287" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>72043</v>
       </c>
@@ -5432,13 +5436,13 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D288" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>73001</v>
       </c>
@@ -5446,13 +5450,13 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D289" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>73006</v>
       </c>
@@ -5460,13 +5464,13 @@
         <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D290" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>73009</v>
       </c>
@@ -5474,13 +5478,13 @@
         <v>43</v>
       </c>
       <c r="C291" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D291" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>73022</v>
       </c>
@@ -5488,13 +5492,13 @@
         <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D292" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>73028</v>
       </c>
@@ -5502,13 +5506,13 @@
         <v>108</v>
       </c>
       <c r="C293" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D293" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>73032</v>
       </c>
@@ -5516,13 +5520,13 @@
         <v>114</v>
       </c>
       <c r="C294" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D294" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>73040</v>
       </c>
@@ -5530,13 +5534,13 @@
         <v>145</v>
       </c>
       <c r="C295" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D295" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>73042</v>
       </c>
@@ -5544,13 +5548,13 @@
         <v>152</v>
       </c>
       <c r="C296" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D296" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>73066</v>
       </c>
@@ -5558,13 +5562,13 @@
         <v>223</v>
       </c>
       <c r="C297" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D297" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>73083</v>
       </c>
@@ -5572,13 +5576,13 @@
         <v>256</v>
       </c>
       <c r="C298" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D298" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>73098</v>
       </c>
@@ -5586,13 +5590,13 @@
         <v>269</v>
       </c>
       <c r="C299" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D299" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>73107</v>
       </c>
@@ -5600,13 +5604,13 @@
         <v>179</v>
       </c>
       <c r="C300" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D300" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>73109</v>
       </c>
@@ -5614,13 +5618,13 @@
         <v>263</v>
       </c>
       <c r="C301" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D301" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>99991</v>
       </c>
@@ -5628,13 +5632,13 @@
         <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D302" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>99999</v>
       </c>
@@ -5642,15 +5646,29 @@
         <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D303" t="s">
-        <v>319</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>99992</v>
+      </c>
+      <c r="B304" t="s">
+        <v>339</v>
+      </c>
+      <c r="C304" t="s">
+        <v>328</v>
+      </c>
+      <c r="D304" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D301">
-    <sortState ref="A2:D323">
+  <autoFilter ref="A1:D301" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D323">
       <sortCondition ref="A1:A323"/>
     </sortState>
   </autoFilter>

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF4841-96A1-41DE-B3FF-A125D9FAB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C499E40-2B36-4CC7-9D6F-D04F013D8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27096" yWindow="1908" windowWidth="13272" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$302</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="337">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -933,9 +933,6 @@
     <t>Zwijndrecht</t>
   </si>
   <si>
-    <t>gemeente onbekend</t>
-  </si>
-  <si>
     <t>gemeente onbekend (Vlaanderen)</t>
   </si>
   <si>
@@ -1014,9 +1011,6 @@
     <t>REFREG91</t>
   </si>
   <si>
-    <t>REFREG99</t>
-  </si>
-  <si>
     <t>REFREG01</t>
   </si>
   <si>
@@ -1045,12 +1039,6 @@
   </si>
   <si>
     <t>Middenkust</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Brussel)</t>
-  </si>
-  <si>
-    <t>Buiten Vlaanderen</t>
   </si>
 </sst>
 </file>
@@ -1402,26 +1390,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" t="s">
         <v>319</v>
-      </c>
-      <c r="D1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1420,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,10 +1434,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +1448,10 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,10 +1462,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,10 +1476,10 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,10 +1490,10 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,10 +1504,10 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1518,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,10 +1532,10 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,10 +1546,10 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,10 +1560,10 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,10 +1574,10 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,10 +1588,10 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,10 +1602,10 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,10 +1616,10 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,10 +1630,10 @@
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,10 +1644,10 @@
         <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,10 +1658,10 @@
         <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,10 +1672,10 @@
         <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,10 +1686,10 @@
         <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,10 +1700,10 @@
         <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,10 +1714,10 @@
         <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,10 +1728,10 @@
         <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,10 +1742,10 @@
         <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,10 +1756,10 @@
         <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,10 +1770,10 @@
         <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,10 +1784,10 @@
         <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,10 +1798,10 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,10 +1812,10 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,10 +1826,10 @@
         <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,10 +1840,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,10 +1854,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,10 +1868,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,10 +1882,10 @@
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,10 +1896,10 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,10 +1910,10 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,10 +1924,10 @@
         <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,10 +1938,10 @@
         <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,10 +1952,10 @@
         <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,10 +1966,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,10 +1980,10 @@
         <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,10 +2008,10 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,10 +2022,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,10 +2036,10 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,10 +2050,10 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,10 +2064,10 @@
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,10 +2078,10 @@
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,10 +2092,10 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,10 +2106,10 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,10 +2120,10 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,10 +2134,10 @@
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,10 +2148,10 @@
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,10 +2162,10 @@
         <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,10 +2176,10 @@
         <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,10 +2190,10 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,10 +2204,10 @@
         <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,10 +2218,10 @@
         <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,10 +2232,10 @@
         <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,10 +2246,10 @@
         <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,10 +2260,10 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,10 +2274,10 @@
         <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,10 +2288,10 @@
         <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,10 +2302,10 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,10 +2316,10 @@
         <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,10 +2330,10 @@
         <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,10 +2344,10 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,10 +2358,10 @@
         <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,10 +2372,10 @@
         <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,10 +2386,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2400,10 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,10 +2414,10 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,10 +2428,10 @@
         <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,10 +2442,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,10 +2456,10 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,10 +2470,10 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,10 +2484,10 @@
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,10 +2498,10 @@
         <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,10 +2512,10 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,10 +2526,10 @@
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,10 +2540,10 @@
         <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2554,10 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,10 +2568,10 @@
         <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,10 +2582,10 @@
         <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,10 +2596,10 @@
         <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,10 +2610,10 @@
         <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2624,10 @@
         <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,10 +2638,10 @@
         <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,10 +2652,10 @@
         <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,10 +2666,10 @@
         <v>242</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,10 +2680,10 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,10 +2694,10 @@
         <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,10 +2708,10 @@
         <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2722,10 @@
         <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,10 +2736,10 @@
         <v>289</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,10 +2750,10 @@
         <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,10 +2764,10 @@
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2778,10 @@
         <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,10 +2792,10 @@
         <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,10 +2806,10 @@
         <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,10 +2820,10 @@
         <v>270</v>
       </c>
       <c r="C102" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2834,10 @@
         <v>275</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2848,10 @@
         <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2862,10 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,10 +2876,10 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2890,10 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2904,10 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2918,10 @@
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2932,10 @@
         <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2946,10 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2960,10 @@
         <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2974,10 @@
         <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +2988,10 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +3002,10 @@
         <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3016,10 @@
         <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,10 +3030,10 @@
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,10 +3044,10 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,10 +3058,10 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,10 +3072,10 @@
         <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,10 +3086,10 @@
         <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,10 +3100,10 @@
         <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,10 +3114,10 @@
         <v>153</v>
       </c>
       <c r="C123" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,10 +3128,10 @@
         <v>161</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,10 +3142,10 @@
         <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,10 +3156,10 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,10 +3170,10 @@
         <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3184,10 @@
         <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,10 +3198,10 @@
         <v>255</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,10 +3212,10 @@
         <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D130" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,10 +3226,10 @@
         <v>294</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,10 +3240,10 @@
         <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,10 +3254,10 @@
         <v>232</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,10 +3268,10 @@
         <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D134" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,10 +3282,10 @@
         <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D135" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,10 +3296,10 @@
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,10 +3310,10 @@
         <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,10 +3324,10 @@
         <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,10 +3338,10 @@
         <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,10 +3352,10 @@
         <v>128</v>
       </c>
       <c r="C140" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,10 +3366,10 @@
         <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,10 +3380,10 @@
         <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D142" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,10 +3394,10 @@
         <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,10 +3408,10 @@
         <v>295</v>
       </c>
       <c r="C144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,10 +3422,10 @@
         <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,10 +3436,10 @@
         <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,10 +3450,10 @@
         <v>120</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3476,10 +3464,10 @@
         <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,10 +3478,10 @@
         <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,10 +3492,10 @@
         <v>174</v>
       </c>
       <c r="C150" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,10 +3506,10 @@
         <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,10 +3520,10 @@
         <v>191</v>
       </c>
       <c r="C152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,10 +3534,10 @@
         <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,10 +3548,10 @@
         <v>271</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,10 +3562,10 @@
         <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,10 +3576,10 @@
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D156" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3602,10 +3590,10 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3616,10 +3604,10 @@
         <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D158" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,10 +3618,10 @@
         <v>15</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,10 +3646,10 @@
         <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,10 +3660,10 @@
         <v>96</v>
       </c>
       <c r="C162" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,10 +3674,10 @@
         <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,10 +3688,10 @@
         <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3714,10 +3702,10 @@
         <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,10 +3716,10 @@
         <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,10 +3730,10 @@
         <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D167" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,10 +3744,10 @@
         <v>274</v>
       </c>
       <c r="C168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,10 +3758,10 @@
         <v>299</v>
       </c>
       <c r="C169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,10 +3772,10 @@
         <v>244</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D170" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,10 +3786,10 @@
         <v>50</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3812,10 +3800,10 @@
         <v>84</v>
       </c>
       <c r="C172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3826,10 +3814,10 @@
         <v>124</v>
       </c>
       <c r="C173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,10 +3828,10 @@
         <v>193</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,10 +3842,10 @@
         <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,10 +3856,10 @@
         <v>211</v>
       </c>
       <c r="C176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,10 +3870,10 @@
         <v>55</v>
       </c>
       <c r="C177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,10 +3884,10 @@
         <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D178" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,10 +3898,10 @@
         <v>126</v>
       </c>
       <c r="C179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D179" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3924,10 +3912,10 @@
         <v>127</v>
       </c>
       <c r="C180" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,10 +3926,10 @@
         <v>157</v>
       </c>
       <c r="C181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,10 +3940,10 @@
         <v>162</v>
       </c>
       <c r="C182" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D182" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,10 +3954,10 @@
         <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D183" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,10 +3968,10 @@
         <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D184" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,10 +3982,10 @@
         <v>246</v>
       </c>
       <c r="C185" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D185" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,10 +3996,10 @@
         <v>61</v>
       </c>
       <c r="C186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,10 +4010,10 @@
         <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D187" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4036,10 +4024,10 @@
         <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D188" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4050,10 +4038,10 @@
         <v>217</v>
       </c>
       <c r="C189" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4064,10 +4052,10 @@
         <v>229</v>
       </c>
       <c r="C190" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D190" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4078,10 +4066,10 @@
         <v>253</v>
       </c>
       <c r="C191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D191" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,10 +4080,10 @@
         <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D192" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,10 +4094,10 @@
         <v>280</v>
       </c>
       <c r="C193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D193" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4120,10 +4108,10 @@
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D194" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,10 +4122,10 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D195" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,10 +4136,10 @@
         <v>56</v>
       </c>
       <c r="C196" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D196" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,10 +4150,10 @@
         <v>140</v>
       </c>
       <c r="C197" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4176,10 +4164,10 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D198" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4190,10 +4178,10 @@
         <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D199" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,10 +4192,10 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D200" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,10 +4206,10 @@
         <v>59</v>
       </c>
       <c r="C201" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4232,10 +4220,10 @@
         <v>82</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,10 +4234,10 @@
         <v>90</v>
       </c>
       <c r="C203" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D203" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,10 +4248,10 @@
         <v>109</v>
       </c>
       <c r="C204" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D204" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4274,10 +4262,10 @@
         <v>156</v>
       </c>
       <c r="C205" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D205" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,10 +4276,10 @@
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D206" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4302,10 +4290,10 @@
         <v>239</v>
       </c>
       <c r="C207" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D207" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,10 +4304,10 @@
         <v>293</v>
       </c>
       <c r="C208" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D208" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4330,10 +4318,10 @@
         <v>73</v>
       </c>
       <c r="C209" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D209" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,10 +4332,10 @@
         <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4358,10 +4346,10 @@
         <v>53</v>
       </c>
       <c r="C211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D211" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4372,10 +4360,10 @@
         <v>60</v>
       </c>
       <c r="C212" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D212" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4386,10 +4374,10 @@
         <v>94</v>
       </c>
       <c r="C213" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,10 +4388,10 @@
         <v>151</v>
       </c>
       <c r="C214" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,10 +4402,10 @@
         <v>155</v>
       </c>
       <c r="C215" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D215" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4428,10 +4416,10 @@
         <v>266</v>
       </c>
       <c r="C216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4442,10 +4430,10 @@
         <v>273</v>
       </c>
       <c r="C217" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4456,10 +4444,10 @@
         <v>276</v>
       </c>
       <c r="C218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D218" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4470,10 +4458,10 @@
         <v>287</v>
       </c>
       <c r="C219" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D219" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,10 +4472,10 @@
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4498,10 +4486,10 @@
         <v>72</v>
       </c>
       <c r="C221" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D221" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4512,10 +4500,10 @@
         <v>133</v>
       </c>
       <c r="C222" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4526,10 +4514,10 @@
         <v>181</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D223" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4540,10 +4528,10 @@
         <v>238</v>
       </c>
       <c r="C224" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D224" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,10 +4542,10 @@
         <v>288</v>
       </c>
       <c r="C225" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,10 +4556,10 @@
         <v>57</v>
       </c>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4582,10 +4570,10 @@
         <v>63</v>
       </c>
       <c r="C227" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D227" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4596,10 +4584,10 @@
         <v>75</v>
       </c>
       <c r="C228" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4610,10 +4598,10 @@
         <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,10 +4612,10 @@
         <v>81</v>
       </c>
       <c r="C230" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4638,10 +4626,10 @@
         <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,10 +4640,10 @@
         <v>186</v>
       </c>
       <c r="C232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,10 +4654,10 @@
         <v>189</v>
       </c>
       <c r="C233" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,10 +4668,10 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,10 +4682,10 @@
         <v>198</v>
       </c>
       <c r="C235" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D235" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,10 +4696,10 @@
         <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D236" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4722,10 +4710,10 @@
         <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D237" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4736,10 +4724,10 @@
         <v>267</v>
       </c>
       <c r="C238" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4750,10 +4738,10 @@
         <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4764,10 +4752,10 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D241" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,10 +4780,10 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D242" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4806,10 +4794,10 @@
         <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D243" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,10 +4808,10 @@
         <v>226</v>
       </c>
       <c r="C244" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D244" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4834,10 +4822,10 @@
         <v>47</v>
       </c>
       <c r="C245" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D245" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,10 +4836,10 @@
         <v>137</v>
       </c>
       <c r="C246" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D246" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4862,10 +4850,10 @@
         <v>282</v>
       </c>
       <c r="C247" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D247" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,10 +4864,10 @@
         <v>118</v>
       </c>
       <c r="C248" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D248" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,10 +4878,10 @@
         <v>165</v>
       </c>
       <c r="C249" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D249" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,10 +4892,10 @@
         <v>177</v>
       </c>
       <c r="C250" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D250" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4918,10 +4906,10 @@
         <v>298</v>
       </c>
       <c r="C251" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D251" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4932,10 +4920,10 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D252" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4946,10 +4934,10 @@
         <v>34</v>
       </c>
       <c r="C253" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D253" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,10 +4948,10 @@
         <v>148</v>
       </c>
       <c r="C254" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D254" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,10 +4962,10 @@
         <v>171</v>
       </c>
       <c r="C255" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D255" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4988,10 +4976,10 @@
         <v>236</v>
       </c>
       <c r="C256" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D256" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5002,10 +4990,10 @@
         <v>241</v>
       </c>
       <c r="C257" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5016,10 +5004,10 @@
         <v>248</v>
       </c>
       <c r="C258" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D258" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,10 +5018,10 @@
         <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,10 +5032,10 @@
         <v>18</v>
       </c>
       <c r="C260" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D260" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5058,10 +5046,10 @@
         <v>29</v>
       </c>
       <c r="C261" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D261" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5072,10 +5060,10 @@
         <v>64</v>
       </c>
       <c r="C262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D262" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5086,10 +5074,10 @@
         <v>80</v>
       </c>
       <c r="C263" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D263" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5100,10 +5088,10 @@
         <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D264" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5114,10 +5102,10 @@
         <v>91</v>
       </c>
       <c r="C265" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D265" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5128,10 +5116,10 @@
         <v>97</v>
       </c>
       <c r="C266" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D266" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5142,10 +5130,10 @@
         <v>105</v>
       </c>
       <c r="C267" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D267" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5156,10 +5144,10 @@
         <v>160</v>
       </c>
       <c r="C268" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5170,10 +5158,10 @@
         <v>176</v>
       </c>
       <c r="C269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,10 +5172,10 @@
         <v>200</v>
       </c>
       <c r="C270" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D270" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,10 +5186,10 @@
         <v>243</v>
       </c>
       <c r="C271" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D271" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5212,10 +5200,10 @@
         <v>252</v>
       </c>
       <c r="C272" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D272" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5226,10 +5214,10 @@
         <v>291</v>
       </c>
       <c r="C273" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D273" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5240,10 +5228,10 @@
         <v>297</v>
       </c>
       <c r="C274" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D274" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5254,10 +5242,10 @@
         <v>93</v>
       </c>
       <c r="C275" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D275" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5268,10 +5256,10 @@
         <v>110</v>
       </c>
       <c r="C276" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D276" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,10 +5270,10 @@
         <v>38</v>
       </c>
       <c r="C277" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D277" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5296,10 +5284,10 @@
         <v>51</v>
       </c>
       <c r="C278" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D278" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5310,10 +5298,10 @@
         <v>136</v>
       </c>
       <c r="C279" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D279" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5324,10 +5312,10 @@
         <v>172</v>
       </c>
       <c r="C280" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D280" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,10 +5326,10 @@
         <v>178</v>
       </c>
       <c r="C281" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D281" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5352,10 +5340,10 @@
         <v>215</v>
       </c>
       <c r="C282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D282" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,10 +5354,10 @@
         <v>95</v>
       </c>
       <c r="C283" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D283" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5380,10 +5368,10 @@
         <v>98</v>
       </c>
       <c r="C284" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D284" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5394,10 +5382,10 @@
         <v>119</v>
       </c>
       <c r="C285" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D285" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5408,10 +5396,10 @@
         <v>68</v>
       </c>
       <c r="C286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D286" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5422,10 +5410,10 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D287" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D288" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,10 +5438,10 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D289" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5464,10 +5452,10 @@
         <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D290" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5478,10 +5466,10 @@
         <v>43</v>
       </c>
       <c r="C291" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D291" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5492,10 +5480,10 @@
         <v>99</v>
       </c>
       <c r="C292" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D292" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,10 +5494,10 @@
         <v>108</v>
       </c>
       <c r="C293" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D293" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5520,10 +5508,10 @@
         <v>114</v>
       </c>
       <c r="C294" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D294" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,10 +5522,10 @@
         <v>145</v>
       </c>
       <c r="C295" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D295" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5548,10 +5536,10 @@
         <v>152</v>
       </c>
       <c r="C296" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D296" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,10 +5550,10 @@
         <v>223</v>
       </c>
       <c r="C297" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D297" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5576,10 +5564,10 @@
         <v>256</v>
       </c>
       <c r="C298" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D298" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,10 +5578,10 @@
         <v>269</v>
       </c>
       <c r="C299" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D299" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,10 +5592,10 @@
         <v>179</v>
       </c>
       <c r="C300" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D300" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5618,10 +5606,10 @@
         <v>263</v>
       </c>
       <c r="C301" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D301" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5629,49 +5617,16 @@
         <v>99991</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D302" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>99999</v>
-      </c>
-      <c r="B303" t="s">
-        <v>301</v>
-      </c>
-      <c r="C303" t="s">
-        <v>328</v>
-      </c>
-      <c r="D303" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>99992</v>
-      </c>
-      <c r="B304" t="s">
-        <v>339</v>
-      </c>
-      <c r="C304" t="s">
-        <v>328</v>
-      </c>
-      <c r="D304" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D301" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D323">
-      <sortCondition ref="A1:A323"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C499E40-2B36-4CC7-9D6F-D04F013D8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46B128-722C-4963-91F6-296E61153032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33570" yWindow="-2430" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="340">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -1039,16 +1039,38 @@
   </si>
   <si>
     <t>Middenkust</t>
+  </si>
+  <si>
+    <t>REFREG99</t>
+  </si>
+  <si>
+    <t>Buiten Vlaanderen en Brussel</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Brussel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1071,14 +1093,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{8BAB6035-122C-416B-BA9D-AE68C1FD4BA7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,15 +1415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="K299" sqref="K299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -1412,7 +1440,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -1440,7 +1468,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11004</v>
       </c>
@@ -1454,7 +1482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11005</v>
       </c>
@@ -1468,7 +1496,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11007</v>
       </c>
@@ -1482,7 +1510,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11008</v>
       </c>
@@ -1496,7 +1524,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11009</v>
       </c>
@@ -1510,7 +1538,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11013</v>
       </c>
@@ -1524,7 +1552,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11016</v>
       </c>
@@ -1538,7 +1566,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11018</v>
       </c>
@@ -1552,7 +1580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11021</v>
       </c>
@@ -1566,7 +1594,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11022</v>
       </c>
@@ -1580,7 +1608,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11023</v>
       </c>
@@ -1594,7 +1622,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11024</v>
       </c>
@@ -1608,7 +1636,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11025</v>
       </c>
@@ -1622,7 +1650,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11029</v>
       </c>
@@ -1636,7 +1664,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11030</v>
       </c>
@@ -1650,7 +1678,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11035</v>
       </c>
@@ -1664,7 +1692,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11037</v>
       </c>
@@ -1678,7 +1706,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11038</v>
       </c>
@@ -1692,7 +1720,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11039</v>
       </c>
@@ -1706,7 +1734,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11040</v>
       </c>
@@ -1720,7 +1748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11044</v>
       </c>
@@ -1734,7 +1762,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11050</v>
       </c>
@@ -1748,7 +1776,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11052</v>
       </c>
@@ -1762,7 +1790,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11053</v>
       </c>
@@ -1776,7 +1804,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11054</v>
       </c>
@@ -1790,7 +1818,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11055</v>
       </c>
@@ -1804,7 +1832,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11056</v>
       </c>
@@ -1818,7 +1846,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11057</v>
       </c>
@@ -1832,7 +1860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12002</v>
       </c>
@@ -1846,7 +1874,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12005</v>
       </c>
@@ -1860,7 +1888,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12007</v>
       </c>
@@ -1874,7 +1902,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12009</v>
       </c>
@@ -1888,7 +1916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12014</v>
       </c>
@@ -1902,7 +1930,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12021</v>
       </c>
@@ -1916,7 +1944,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12025</v>
       </c>
@@ -1930,7 +1958,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12026</v>
       </c>
@@ -1944,7 +1972,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12029</v>
       </c>
@@ -1958,7 +1986,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12035</v>
       </c>
@@ -1972,7 +2000,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12040</v>
       </c>
@@ -1986,7 +2014,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12041</v>
       </c>
@@ -2000,7 +2028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13001</v>
       </c>
@@ -2014,7 +2042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13002</v>
       </c>
@@ -2028,7 +2056,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13003</v>
       </c>
@@ -2042,7 +2070,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13004</v>
       </c>
@@ -2056,7 +2084,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13006</v>
       </c>
@@ -2070,7 +2098,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13008</v>
       </c>
@@ -2084,7 +2112,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13010</v>
       </c>
@@ -2098,7 +2126,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13011</v>
       </c>
@@ -2112,7 +2140,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13012</v>
       </c>
@@ -2126,7 +2154,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13013</v>
       </c>
@@ -2140,7 +2168,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13014</v>
       </c>
@@ -2154,7 +2182,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13016</v>
       </c>
@@ -2168,7 +2196,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13017</v>
       </c>
@@ -2182,7 +2210,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13019</v>
       </c>
@@ -2196,7 +2224,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13021</v>
       </c>
@@ -2210,7 +2238,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13023</v>
       </c>
@@ -2224,7 +2252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13025</v>
       </c>
@@ -2238,7 +2266,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13029</v>
       </c>
@@ -2252,7 +2280,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13031</v>
       </c>
@@ -2266,7 +2294,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13035</v>
       </c>
@@ -2280,7 +2308,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13036</v>
       </c>
@@ -2294,7 +2322,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13037</v>
       </c>
@@ -2308,7 +2336,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13040</v>
       </c>
@@ -2322,7 +2350,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13044</v>
       </c>
@@ -2336,7 +2364,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13046</v>
       </c>
@@ -2350,7 +2378,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13049</v>
       </c>
@@ -2364,7 +2392,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13053</v>
       </c>
@@ -2378,7 +2406,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>23002</v>
       </c>
@@ -2392,7 +2420,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23003</v>
       </c>
@@ -2406,7 +2434,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>23009</v>
       </c>
@@ -2420,7 +2448,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>23016</v>
       </c>
@@ -2434,7 +2462,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>23023</v>
       </c>
@@ -2448,7 +2476,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>23024</v>
       </c>
@@ -2462,7 +2490,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>23025</v>
       </c>
@@ -2476,7 +2504,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>23027</v>
       </c>
@@ -2490,7 +2518,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>23032</v>
       </c>
@@ -2504,7 +2532,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>23033</v>
       </c>
@@ -2518,7 +2546,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>23038</v>
       </c>
@@ -2532,7 +2560,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>23039</v>
       </c>
@@ -2546,7 +2574,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>23044</v>
       </c>
@@ -2560,7 +2588,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>23045</v>
       </c>
@@ -2574,7 +2602,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23047</v>
       </c>
@@ -2588,7 +2616,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>23050</v>
       </c>
@@ -2602,7 +2630,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>23052</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>23060</v>
       </c>
@@ -2630,7 +2658,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>23062</v>
       </c>
@@ -2644,7 +2672,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>23064</v>
       </c>
@@ -2658,7 +2686,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23077</v>
       </c>
@@ -2672,7 +2700,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>23081</v>
       </c>
@@ -2686,7 +2714,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23086</v>
       </c>
@@ -2700,7 +2728,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>23088</v>
       </c>
@@ -2714,7 +2742,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>23094</v>
       </c>
@@ -2728,7 +2756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>23096</v>
       </c>
@@ -2742,7 +2770,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>23097</v>
       </c>
@@ -2756,7 +2784,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>23098</v>
       </c>
@@ -2770,7 +2798,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>23099</v>
       </c>
@@ -2784,7 +2812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>23100</v>
       </c>
@@ -2798,7 +2826,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23101</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>23102</v>
       </c>
@@ -2826,7 +2854,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>23103</v>
       </c>
@@ -2840,7 +2868,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>23104</v>
       </c>
@@ -2854,7 +2882,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>23105</v>
       </c>
@@ -2868,7 +2896,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>24001</v>
       </c>
@@ -2882,7 +2910,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>24007</v>
       </c>
@@ -2896,7 +2924,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>24008</v>
       </c>
@@ -2910,7 +2938,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>24009</v>
       </c>
@@ -2924,7 +2952,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24011</v>
       </c>
@@ -2938,7 +2966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>24014</v>
       </c>
@@ -2952,7 +2980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24016</v>
       </c>
@@ -2966,7 +2994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24020</v>
       </c>
@@ -2980,7 +3008,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24028</v>
       </c>
@@ -2994,7 +3022,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24033</v>
       </c>
@@ -3008,7 +3036,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24038</v>
       </c>
@@ -3022,7 +3050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24041</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>24043</v>
       </c>
@@ -3050,7 +3078,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>24045</v>
       </c>
@@ -3064,7 +3092,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>24048</v>
       </c>
@@ -3078,7 +3106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>24054</v>
       </c>
@@ -3092,7 +3120,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>24055</v>
       </c>
@@ -3106,7 +3134,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24059</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>24062</v>
       </c>
@@ -3134,7 +3162,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24066</v>
       </c>
@@ -3148,7 +3176,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>24086</v>
       </c>
@@ -3162,7 +3190,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24094</v>
       </c>
@@ -3176,7 +3204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>24104</v>
       </c>
@@ -3190,7 +3218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>24107</v>
       </c>
@@ -3204,7 +3232,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>24109</v>
       </c>
@@ -3218,7 +3246,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>24130</v>
       </c>
@@ -3232,7 +3260,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>24133</v>
       </c>
@@ -3246,7 +3274,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>24134</v>
       </c>
@@ -3260,7 +3288,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>24135</v>
       </c>
@@ -3274,7 +3302,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>24137</v>
       </c>
@@ -3288,7 +3316,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>31003</v>
       </c>
@@ -3302,7 +3330,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>31004</v>
       </c>
@@ -3316,7 +3344,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>31005</v>
       </c>
@@ -3330,7 +3358,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>31006</v>
       </c>
@@ -3344,7 +3372,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>31012</v>
       </c>
@@ -3358,7 +3386,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>31022</v>
       </c>
@@ -3372,7 +3400,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>31033</v>
       </c>
@@ -3386,7 +3414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>31040</v>
       </c>
@@ -3400,7 +3428,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>31042</v>
       </c>
@@ -3414,7 +3442,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>31043</v>
       </c>
@@ -3428,7 +3456,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>32003</v>
       </c>
@@ -3442,7 +3470,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>32006</v>
       </c>
@@ -3456,7 +3484,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>32010</v>
       </c>
@@ -3470,7 +3498,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>32011</v>
       </c>
@@ -3484,7 +3512,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>32030</v>
       </c>
@@ -3498,7 +3526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>33011</v>
       </c>
@@ -3512,7 +3540,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>33016</v>
       </c>
@@ -3526,7 +3554,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>33021</v>
       </c>
@@ -3540,7 +3568,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>33029</v>
       </c>
@@ -3554,7 +3582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>33037</v>
       </c>
@@ -3568,7 +3596,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33039</v>
       </c>
@@ -3582,7 +3610,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>33040</v>
       </c>
@@ -3596,7 +3624,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33041</v>
       </c>
@@ -3610,7 +3638,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>34002</v>
       </c>
@@ -3624,7 +3652,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34003</v>
       </c>
@@ -3638,7 +3666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>34009</v>
       </c>
@@ -3652,7 +3680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>34013</v>
       </c>
@@ -3666,7 +3694,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>34022</v>
       </c>
@@ -3680,7 +3708,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>34023</v>
       </c>
@@ -3694,7 +3722,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>34025</v>
       </c>
@@ -3708,7 +3736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>34027</v>
       </c>
@@ -3722,7 +3750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>34040</v>
       </c>
@@ -3736,7 +3764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>34041</v>
       </c>
@@ -3750,7 +3778,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>34042</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>34043</v>
       </c>
@@ -3778,7 +3806,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>35002</v>
       </c>
@@ -3792,7 +3820,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>35005</v>
       </c>
@@ -3806,7 +3834,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>35006</v>
       </c>
@@ -3820,7 +3848,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>35011</v>
       </c>
@@ -3834,7 +3862,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>35013</v>
       </c>
@@ -3848,7 +3876,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>35014</v>
       </c>
@@ -3862,7 +3890,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>35029</v>
       </c>
@@ -3876,7 +3904,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>36006</v>
       </c>
@@ -3890,7 +3918,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>36007</v>
       </c>
@@ -3904,7 +3932,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>36008</v>
       </c>
@@ -3918,7 +3946,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>36010</v>
       </c>
@@ -3932,7 +3960,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>36011</v>
       </c>
@@ -3946,7 +3974,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>36012</v>
       </c>
@@ -3960,7 +3988,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>36015</v>
       </c>
@@ -3974,7 +4002,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>36019</v>
       </c>
@@ -3988,7 +4016,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>37002</v>
       </c>
@@ -4002,7 +4030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>37007</v>
       </c>
@@ -4016,7 +4044,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>37010</v>
       </c>
@@ -4030,7 +4058,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>37011</v>
       </c>
@@ -4044,7 +4072,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>37012</v>
       </c>
@@ -4058,7 +4086,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>37015</v>
       </c>
@@ -4072,7 +4100,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>37017</v>
       </c>
@@ -4086,7 +4114,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>37018</v>
       </c>
@@ -4100,7 +4128,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>37020</v>
       </c>
@@ -4114,7 +4142,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>38002</v>
       </c>
@@ -4128,7 +4156,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>38008</v>
       </c>
@@ -4142,7 +4170,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>38014</v>
       </c>
@@ -4156,7 +4184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>38016</v>
       </c>
@@ -4170,7 +4198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>38025</v>
       </c>
@@ -4184,7 +4212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>41002</v>
       </c>
@@ -4198,7 +4226,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>41011</v>
       </c>
@@ -4212,7 +4240,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>41018</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>41024</v>
       </c>
@@ -4240,7 +4268,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>41027</v>
       </c>
@@ -4254,7 +4282,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>41034</v>
       </c>
@@ -4268,7 +4296,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>41048</v>
       </c>
@@ -4282,7 +4310,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>41063</v>
       </c>
@@ -4296,7 +4324,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>41081</v>
       </c>
@@ -4310,7 +4338,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>41082</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>42003</v>
       </c>
@@ -4338,7 +4366,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>42004</v>
       </c>
@@ -4352,7 +4380,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>42006</v>
       </c>
@@ -4366,7 +4394,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>42008</v>
       </c>
@@ -4380,7 +4408,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>42010</v>
       </c>
@@ -4394,7 +4422,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>42011</v>
       </c>
@@ -4408,7 +4436,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>42023</v>
       </c>
@@ -4422,7 +4450,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>42025</v>
       </c>
@@ -4436,7 +4464,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>42026</v>
       </c>
@@ -4450,7 +4478,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>42028</v>
       </c>
@@ -4464,7 +4492,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>43002</v>
       </c>
@@ -4478,7 +4506,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>43005</v>
       </c>
@@ -4492,7 +4520,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>43007</v>
       </c>
@@ -4506,7 +4534,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>43010</v>
       </c>
@@ -4520,7 +4548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>43014</v>
       </c>
@@ -4534,7 +4562,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>43018</v>
       </c>
@@ -4548,7 +4576,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>44012</v>
       </c>
@@ -4562,7 +4590,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>44013</v>
       </c>
@@ -4576,7 +4604,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>44019</v>
       </c>
@@ -4590,7 +4618,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>44020</v>
       </c>
@@ -4604,7 +4632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>44021</v>
       </c>
@@ -4618,7 +4646,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>44034</v>
       </c>
@@ -4632,7 +4660,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>44040</v>
       </c>
@@ -4646,7 +4674,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>44043</v>
       </c>
@@ -4660,7 +4688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>44045</v>
       </c>
@@ -4674,7 +4702,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>44048</v>
       </c>
@@ -4688,7 +4716,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>44052</v>
       </c>
@@ -4702,7 +4730,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>44064</v>
       </c>
@@ -4716,7 +4744,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>44073</v>
       </c>
@@ -4730,7 +4758,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>44081</v>
       </c>
@@ -4744,7 +4772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>44083</v>
       </c>
@@ -4758,7 +4786,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>44084</v>
       </c>
@@ -4772,7 +4800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>44085</v>
       </c>
@@ -4786,7 +4814,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>45035</v>
       </c>
@@ -4800,7 +4828,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>45041</v>
       </c>
@@ -4814,7 +4842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>45059</v>
       </c>
@@ -4828,7 +4856,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>45060</v>
       </c>
@@ -4842,7 +4870,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>45061</v>
       </c>
@@ -4856,7 +4884,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>45062</v>
       </c>
@@ -4870,7 +4898,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>45063</v>
       </c>
@@ -4884,7 +4912,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>45064</v>
       </c>
@@ -4898,7 +4926,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>45065</v>
       </c>
@@ -4912,7 +4940,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>45068</v>
       </c>
@@ -4926,7 +4954,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>46003</v>
       </c>
@@ -4940,7 +4968,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>46013</v>
       </c>
@@ -4954,7 +4982,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>46014</v>
       </c>
@@ -4968,7 +4996,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>46020</v>
       </c>
@@ -4982,7 +5010,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>46021</v>
       </c>
@@ -4996,7 +5024,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>46024</v>
       </c>
@@ -5010,7 +5038,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>46025</v>
       </c>
@@ -5024,7 +5052,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>71002</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>71004</v>
       </c>
@@ -5052,7 +5080,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>71011</v>
       </c>
@@ -5066,7 +5094,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>71016</v>
       </c>
@@ -5080,7 +5108,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>71017</v>
       </c>
@@ -5094,7 +5122,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>71020</v>
       </c>
@@ -5108,7 +5136,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>71022</v>
       </c>
@@ -5122,7 +5150,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>71024</v>
       </c>
@@ -5136,7 +5164,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>71034</v>
       </c>
@@ -5150,7 +5178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>71037</v>
       </c>
@@ -5164,7 +5192,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>71045</v>
       </c>
@@ -5178,7 +5206,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>71053</v>
       </c>
@@ -5192,7 +5220,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>71057</v>
       </c>
@@ -5206,7 +5234,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>71066</v>
       </c>
@@ -5220,7 +5248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>71067</v>
       </c>
@@ -5234,7 +5262,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>71069</v>
       </c>
@@ -5248,7 +5276,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>71070</v>
       </c>
@@ -5262,7 +5290,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>72003</v>
       </c>
@@ -5276,7 +5304,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>72004</v>
       </c>
@@ -5290,7 +5318,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>72018</v>
       </c>
@@ -5304,7 +5332,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>72020</v>
       </c>
@@ -5318,7 +5346,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>72021</v>
       </c>
@@ -5332,7 +5360,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>72030</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>72037</v>
       </c>
@@ -5360,7 +5388,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>72038</v>
       </c>
@@ -5374,7 +5402,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>72039</v>
       </c>
@@ -5388,7 +5416,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>72041</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>72042</v>
       </c>
@@ -5416,7 +5444,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>72043</v>
       </c>
@@ -5430,7 +5458,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>73001</v>
       </c>
@@ -5444,7 +5472,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>73006</v>
       </c>
@@ -5458,7 +5486,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>73009</v>
       </c>
@@ -5472,7 +5500,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>73022</v>
       </c>
@@ -5486,7 +5514,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>73028</v>
       </c>
@@ -5500,7 +5528,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>73032</v>
       </c>
@@ -5514,7 +5542,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>73040</v>
       </c>
@@ -5528,7 +5556,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>73042</v>
       </c>
@@ -5542,7 +5570,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>73066</v>
       </c>
@@ -5556,7 +5584,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>73083</v>
       </c>
@@ -5570,7 +5598,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>73098</v>
       </c>
@@ -5584,7 +5612,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>73107</v>
       </c>
@@ -5598,7 +5626,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>73109</v>
       </c>
@@ -5612,7 +5640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>99991</v>
       </c>
@@ -5626,7 +5654,36 @@
         <v>317</v>
       </c>
     </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>99992</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>99999</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46B128-722C-4963-91F6-296E61153032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4BC8F-6634-4A2A-8EB0-24D6914A0961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33570" yWindow="-2430" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="342">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -1048,6 +1048,12 @@
   </si>
   <si>
     <t>Niet te lokaliseren - Brussel</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren</t>
+  </si>
+  <si>
+    <t>REFREG93</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="K299" sqref="K299"/>
+      <selection activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5682,6 +5688,20 @@
         <v>338</v>
       </c>
     </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>99993</v>
+      </c>
+      <c r="B305" t="s">
+        <v>340</v>
+      </c>
+      <c r="C305" t="s">
+        <v>341</v>
+      </c>
+      <c r="D305" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4BC8F-6634-4A2A-8EB0-24D6914A0961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA9257-1B00-4597-B657-5C0FAF65FA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="339">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -1045,15 +1045,6 @@
   </si>
   <si>
     <t>Buiten Vlaanderen en Brussel</t>
-  </si>
-  <si>
-    <t>Niet te lokaliseren - Brussel</t>
-  </si>
-  <si>
-    <t>Niet te lokaliseren</t>
-  </si>
-  <si>
-    <t>REFREG93</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="H306" sqref="H306"/>
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5662,44 +5653,16 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>99992</v>
+        <v>99999</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304">
-        <v>99999</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305">
-        <v>99993</v>
-      </c>
-      <c r="B305" t="s">
-        <v>340</v>
-      </c>
-      <c r="C305" t="s">
-        <v>341</v>
-      </c>
-      <c r="D305" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CA9257-1B00-4597-B657-5C0FAF65FA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF356B-0BF3-4186-86BD-053683E0BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$302</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="324">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -132,15 +140,9 @@
     <t>Bever</t>
   </si>
   <si>
-    <t>Beveren</t>
-  </si>
-  <si>
     <t>Bierbeek</t>
   </si>
   <si>
-    <t>Bilzen</t>
-  </si>
-  <si>
     <t>Blankenberge</t>
   </si>
   <si>
@@ -159,15 +161,9 @@
     <t>Boortmeerbeek</t>
   </si>
   <si>
-    <t>Borgloon</t>
-  </si>
-  <si>
     <t>Bornem</t>
   </si>
   <si>
-    <t>Borsbeek</t>
-  </si>
-  <si>
     <t>Boutersem</t>
   </si>
   <si>
@@ -201,9 +197,6 @@
     <t>De Panne</t>
   </si>
   <si>
-    <t>De Pinte</t>
-  </si>
-  <si>
     <t>Deerlijk</t>
   </si>
   <si>
@@ -258,9 +251,6 @@
     <t>Evergem</t>
   </si>
   <si>
-    <t>Galmaarden</t>
-  </si>
-  <si>
     <t>Gavere</t>
   </si>
   <si>
@@ -288,9 +278,6 @@
     <t>Glabbeek</t>
   </si>
   <si>
-    <t>Gooik</t>
-  </si>
-  <si>
     <t>Grimbergen</t>
   </si>
   <si>
@@ -309,9 +296,6 @@
     <t>Halle</t>
   </si>
   <si>
-    <t>Ham</t>
-  </si>
-  <si>
     <t>Hamme</t>
   </si>
   <si>
@@ -348,9 +332,6 @@
     <t>Herk-de-Stad</t>
   </si>
   <si>
-    <t>Herne</t>
-  </si>
-  <si>
     <t>Herselt</t>
   </si>
   <si>
@@ -372,9 +353,6 @@
     <t>Hoeilaart</t>
   </si>
   <si>
-    <t>Hoeselt</t>
-  </si>
-  <si>
     <t>Holsbeek</t>
   </si>
   <si>
@@ -465,18 +443,12 @@
     <t>Kortenberg</t>
   </si>
   <si>
-    <t>Kortessem</t>
-  </si>
-  <si>
     <t>Kortrijk</t>
   </si>
   <si>
     <t>Kraainem</t>
   </si>
   <si>
-    <t>Kruibeke</t>
-  </si>
-  <si>
     <t>Kuurne</t>
   </si>
   <si>
@@ -588,33 +560,21 @@
     <t>Meise</t>
   </si>
   <si>
-    <t>Melle</t>
-  </si>
-  <si>
     <t>Menen</t>
   </si>
   <si>
     <t>Merchtem</t>
   </si>
   <si>
-    <t>Merelbeke</t>
-  </si>
-  <si>
     <t>Merksplas</t>
   </si>
   <si>
     <t>Mesen</t>
   </si>
   <si>
-    <t>Meulebeke</t>
-  </si>
-  <si>
     <t>Middelkerke</t>
   </si>
   <si>
-    <t>Moerbeke</t>
-  </si>
-  <si>
     <t>Mol</t>
   </si>
   <si>
@@ -624,9 +584,6 @@
     <t>Mortsel</t>
   </si>
   <si>
-    <t>Nazareth</t>
-  </si>
-  <si>
     <t>Niel</t>
   </si>
   <si>
@@ -717,9 +674,6 @@
     <t>Rotselaar</t>
   </si>
   <si>
-    <t>Ruiselede</t>
-  </si>
-  <si>
     <t>Rumst</t>
   </si>
   <si>
@@ -786,9 +740,6 @@
     <t>Tervuren</t>
   </si>
   <si>
-    <t>Tessenderlo</t>
-  </si>
-  <si>
     <t>Tielt</t>
   </si>
   <si>
@@ -798,9 +749,6 @@
     <t>Tienen</t>
   </si>
   <si>
-    <t>Tongeren</t>
-  </si>
-  <si>
     <t>Torhout</t>
   </si>
   <si>
@@ -831,9 +779,6 @@
     <t>Waasmunster</t>
   </si>
   <si>
-    <t>Wachtebeke</t>
-  </si>
-  <si>
     <t>Waregem</t>
   </si>
   <si>
@@ -930,12 +875,6 @@
     <t>Zwevegem</t>
   </si>
   <si>
-    <t>Zwijndrecht</t>
-  </si>
-  <si>
-    <t>gemeente onbekend (Vlaanderen)</t>
-  </si>
-  <si>
     <t>gemeente</t>
   </si>
   <si>
@@ -1045,13 +984,37 @@
   </si>
   <si>
     <t>Buiten Vlaanderen en Brussel</t>
+  </si>
+  <si>
+    <t>Beveren-Kruibeke-Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Bilzen-Hoeselt</t>
+  </si>
+  <si>
+    <t>Merelbeke-Melle</t>
+  </si>
+  <si>
+    <t>Nazareth-De Pinte</t>
+  </si>
+  <si>
+    <t>Pajottegem</t>
+  </si>
+  <si>
+    <t>Tessenderlo-Ham</t>
+  </si>
+  <si>
+    <t>Tongeren-Borgloon</t>
+  </si>
+  <si>
+    <t>Niet te lokaliseren - Vlaanderen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,12 +1025,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1094,9 +1051,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1411,4262 +1367,4048 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3C9D6A-5C3D-419D-B580-AB662F58B8BF}">
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11001</v>
+        <v>41002</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11002</v>
+        <v>44084</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11004</v>
+        <v>24001</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11005</v>
+        <v>11001</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11007</v>
+        <v>23105</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11008</v>
+        <v>73001</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11009</v>
+        <v>38002</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11013</v>
+        <v>11002</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11016</v>
+        <v>34002</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11018</v>
+        <v>37020</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11021</v>
+        <v>13001</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11022</v>
+        <v>71002</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11023</v>
+        <v>23002</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11024</v>
+        <v>43002</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11025</v>
+        <v>34003</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11029</v>
+        <v>13002</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11030</v>
+        <v>13003</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11035</v>
+        <v>31003</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11037</v>
+        <v>13004</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11038</v>
+        <v>23003</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11039</v>
+        <v>24007</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11040</v>
+        <v>24008</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11044</v>
+        <v>71004</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11050</v>
+        <v>12002</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11052</v>
+        <v>42003</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11053</v>
+        <v>24009</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11054</v>
+        <v>23009</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11055</v>
+        <v>46030</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11056</v>
+        <v>24011</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D30" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11057</v>
+        <v>73110</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>12002</v>
+        <v>31004</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>12005</v>
+        <v>72003</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>12007</v>
+        <v>11004</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>12009</v>
+        <v>12005</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>12014</v>
+        <v>11005</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>12021</v>
+        <v>24014</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>12025</v>
+        <v>12007</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>12026</v>
+        <v>24016</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>12029</v>
+        <v>45059</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>12035</v>
+        <v>11008</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12040</v>
+        <v>11009</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D42" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12041</v>
+        <v>35002</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>13001</v>
+        <v>72004</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13002</v>
+        <v>31005</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13003</v>
+        <v>42004</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D46" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>13004</v>
+        <v>31006</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>13006</v>
+        <v>35029</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13008</v>
+        <v>38008</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13010</v>
+        <v>34009</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D50" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>13011</v>
+        <v>44083</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13012</v>
+        <v>41011</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>13013</v>
+        <v>42006</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>13014</v>
+        <v>37002</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="D54" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>13016</v>
+        <v>13006</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>13017</v>
+        <v>44013</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13019</v>
+        <v>71011</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13021</v>
+        <v>24020</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D58" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>13023</v>
+        <v>32003</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13025</v>
+        <v>23016</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13029</v>
+        <v>72041</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>13031</v>
+        <v>23098</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13035</v>
+        <v>12009</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13036</v>
+        <v>11013</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>13037</v>
+        <v>43005</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13040</v>
+        <v>41082</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>13044</v>
+        <v>11016</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>13046</v>
+        <v>44019</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D68" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>13049</v>
+        <v>44020</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>13053</v>
+        <v>13008</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>23002</v>
+        <v>24028</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>23003</v>
+        <v>71016</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>23009</v>
+        <v>44021</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23016</v>
+        <v>41018</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>23023</v>
+        <v>71017</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23024</v>
+        <v>35005</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>23025</v>
+        <v>24137</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>23027</v>
+        <v>23025</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D78" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>23032</v>
+        <v>13010</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>23033</v>
+        <v>24033</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>23038</v>
+        <v>41024</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D81" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>23039</v>
+        <v>71020</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>23044</v>
+        <v>23027</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>23045</v>
+        <v>42008</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>23047</v>
+        <v>72037</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23050</v>
+        <v>34013</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>23052</v>
+        <v>71072</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>23060</v>
+        <v>72038</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>23062</v>
+        <v>73022</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>23064</v>
+        <v>12014</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>23077</v>
+        <v>11018</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>23081</v>
+        <v>24038</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>23086</v>
+        <v>13011</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>23088</v>
+        <v>13012</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>23094</v>
+        <v>71024</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>23096</v>
+        <v>13013</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D96" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>23097</v>
+        <v>73028</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>23098</v>
+        <v>41027</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>23099</v>
+        <v>71070</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>23100</v>
+        <v>33039</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23101</v>
+        <v>24041</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>23102</v>
+        <v>23033</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D102" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>23103</v>
+        <v>24043</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>23104</v>
+        <v>36006</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>23105</v>
+        <v>13014</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24001</v>
+        <v>45062</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24007</v>
+        <v>72039</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D107" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>24008</v>
+        <v>32006</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D108" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>24009</v>
+        <v>11021</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>24011</v>
+        <v>24045</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>24014</v>
+        <v>13016</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>24016</v>
+        <v>35006</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>24020</v>
+        <v>33011</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D113" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24028</v>
+        <v>36007</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D114" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>24033</v>
+        <v>36008</v>
       </c>
       <c r="B115" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>24038</v>
+        <v>31012</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D116" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>24041</v>
+        <v>11022</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>24043</v>
+        <v>23038</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>24045</v>
+        <v>23039</v>
       </c>
       <c r="B119" t="s">
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>24048</v>
+        <v>11023</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D120" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24054</v>
+        <v>43007</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D121" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>24055</v>
+        <v>13017</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="D122" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>24059</v>
+        <v>24048</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>24062</v>
+        <v>72018</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D124" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>24066</v>
+        <v>45060</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>24086</v>
+        <v>31043</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D126" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>24094</v>
+        <v>32010</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D127" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24104</v>
+        <v>38014</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>24107</v>
+        <v>11024</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D129" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>24109</v>
+        <v>32011</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>24130</v>
+        <v>24054</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D131" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>24133</v>
+        <v>24055</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D132" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>24134</v>
+        <v>34022</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D133" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>24135</v>
+        <v>23099</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D134" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>24137</v>
+        <v>45068</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D135" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>31003</v>
+        <v>34023</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D136" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>31004</v>
+        <v>13053</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D137" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>31005</v>
+        <v>42010</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="D138" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>31006</v>
+        <v>73042</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="D139" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>31012</v>
+        <v>24059</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D140" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>31022</v>
+        <v>33040</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>31033</v>
+        <v>42011</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>31040</v>
+        <v>41034</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>31042</v>
+        <v>36010</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>31043</v>
+        <v>34025</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>32003</v>
+        <v>23104</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>32006</v>
+        <v>71034</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>32010</v>
+        <v>24062</v>
       </c>
       <c r="B148" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>32011</v>
+        <v>36011</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>32030</v>
+        <v>23044</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D150" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>33011</v>
+        <v>12021</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>33016</v>
+        <v>45063</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>33021</v>
+        <v>44085</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="D153" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>33029</v>
+        <v>13019</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D154" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>33037</v>
+        <v>23100</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D155" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>33039</v>
+        <v>11025</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>33040</v>
+        <v>24133</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>33041</v>
+        <v>32030</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>34002</v>
+        <v>44087</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="D159" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>34003</v>
+        <v>46029</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="D160" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>34009</v>
+        <v>72020</v>
       </c>
       <c r="B161" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>34013</v>
+        <v>23045</v>
       </c>
       <c r="B162" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D162" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>34022</v>
+        <v>24066</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>34023</v>
+        <v>71037</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D164" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>34025</v>
+        <v>45064</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D165" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>34027</v>
+        <v>72021</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D166" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>34040</v>
+        <v>73107</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>34041</v>
+        <v>23047</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D168" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>34042</v>
+        <v>43010</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>34043</v>
+        <v>11057</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>35002</v>
+        <v>12025</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D171" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>35005</v>
+        <v>13021</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D172" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>35006</v>
+        <v>23050</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D173" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>35011</v>
+        <v>34027</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D174" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>35013</v>
+        <v>23052</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D175" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>35014</v>
+        <v>44088</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="C176" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="D176" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>35029</v>
+        <v>13023</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D177" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>36006</v>
+        <v>33016</v>
       </c>
       <c r="B178" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D178" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>36007</v>
+        <v>35011</v>
       </c>
       <c r="B179" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>36008</v>
+        <v>13025</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D180" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>36010</v>
+        <v>36012</v>
       </c>
       <c r="B181" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D181" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>36011</v>
+        <v>11029</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D182" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>36012</v>
+        <v>44086</v>
       </c>
       <c r="B183" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="C183" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D183" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>36015</v>
+        <v>11030</v>
       </c>
       <c r="B184" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D184" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>36019</v>
+        <v>71045</v>
       </c>
       <c r="B185" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D185" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>37002</v>
+        <v>38016</v>
       </c>
       <c r="B186" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D186" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>37007</v>
+        <v>12026</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>37010</v>
+        <v>41048</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D188" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>37011</v>
+        <v>13029</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D189" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>37012</v>
+        <v>35013</v>
       </c>
       <c r="B190" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D190" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>37015</v>
+        <v>44052</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D191" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>37017</v>
+        <v>31022</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D192" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>37018</v>
+        <v>37010</v>
       </c>
       <c r="B193" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D193" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>37020</v>
+        <v>23060</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D194" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>38002</v>
+        <v>24086</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="D195" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>38008</v>
+        <v>13031</v>
       </c>
       <c r="B196" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="D196" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>38014</v>
+        <v>45035</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C197" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="D197" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>38016</v>
+        <v>35014</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C198" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D198" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>38025</v>
+        <v>72042</v>
       </c>
       <c r="B199" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D199" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>41002</v>
+        <v>23062</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D200" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>41011</v>
+        <v>23106</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="C201" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D201" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>41018</v>
+        <v>72030</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D202" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>41024</v>
+        <v>72043</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D203" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>41027</v>
+        <v>23064</v>
       </c>
       <c r="B204" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D204" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>41034</v>
+        <v>37011</v>
       </c>
       <c r="B205" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C205" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D205" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>41048</v>
+        <v>33021</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D206" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>41063</v>
+        <v>12029</v>
       </c>
       <c r="B207" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D207" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>41081</v>
+        <v>12041</v>
       </c>
       <c r="B208" t="s">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D208" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>41082</v>
+        <v>11035</v>
       </c>
       <c r="B209" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C209" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D209" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>42003</v>
+        <v>13035</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D210" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>42004</v>
+        <v>13036</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D211" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>42006</v>
+        <v>73066</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D212" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>42008</v>
+        <v>13037</v>
       </c>
       <c r="B213" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C213" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D213" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>42010</v>
+        <v>36015</v>
       </c>
       <c r="B214" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="C214" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="D214" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>42011</v>
+        <v>45041</v>
       </c>
       <c r="B215" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C215" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D215" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>42023</v>
+        <v>23097</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C216" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D216" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>42025</v>
+        <v>24094</v>
       </c>
       <c r="B217" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="C217" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D217" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>42026</v>
+        <v>11037</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="C218" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D218" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>42028</v>
+        <v>11038</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C219" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D219" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>43002</v>
+        <v>24134</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="C220" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D220" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>43005</v>
+        <v>11039</v>
       </c>
       <c r="B221" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C221" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D221" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>43007</v>
+        <v>11040</v>
       </c>
       <c r="B222" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="C222" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D222" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>43010</v>
+        <v>23101</v>
       </c>
       <c r="B223" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C223" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D223" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>43014</v>
+        <v>46020</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C224" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D224" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>43018</v>
+        <v>12035</v>
       </c>
       <c r="B225" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="C225" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D225" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>44012</v>
+        <v>43014</v>
       </c>
       <c r="B226" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="C226" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D226" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>44013</v>
+        <v>41063</v>
       </c>
       <c r="B227" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="C227" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="D227" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>44019</v>
+        <v>44064</v>
       </c>
       <c r="B228" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="C228" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="D228" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>44020</v>
+        <v>46021</v>
       </c>
       <c r="B229" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="C229" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D229" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>44021</v>
+        <v>23077</v>
       </c>
       <c r="B230" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="C230" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D230" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>44034</v>
+        <v>71053</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C231" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D231" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>44040</v>
+        <v>34043</v>
       </c>
       <c r="B232" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="C232" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D232" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>44043</v>
+        <v>11044</v>
       </c>
       <c r="B233" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C233" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D233" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>44045</v>
+        <v>36019</v>
       </c>
       <c r="B234" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C234" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="D234" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>44048</v>
+        <v>23081</v>
       </c>
       <c r="B235" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D235" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>44052</v>
+        <v>46024</v>
       </c>
       <c r="B236" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D236" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>44064</v>
+        <v>46025</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C237" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D237" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>44073</v>
+        <v>23086</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D238" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>44081</v>
+        <v>24104</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D239" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>44083</v>
+        <v>71071</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C240" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D240" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>44084</v>
+        <v>37022</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="D241" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>44085</v>
+        <v>24135</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D242" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>45035</v>
+        <v>24107</v>
       </c>
       <c r="B243" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D243" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>45041</v>
+        <v>73111</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="C244" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D244" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>45059</v>
+        <v>31033</v>
       </c>
       <c r="B245" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C245" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D245" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>45060</v>
+        <v>24109</v>
       </c>
       <c r="B246" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="C246" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D246" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>45061</v>
+        <v>13040</v>
       </c>
       <c r="B247" t="s">
+        <v>239</v>
+      </c>
+      <c r="C247" t="s">
+        <v>306</v>
+      </c>
+      <c r="D247" t="s">
         <v>282</v>
-      </c>
-      <c r="C247" t="s">
-        <v>322</v>
-      </c>
-      <c r="D247" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>45062</v>
+        <v>38025</v>
       </c>
       <c r="B248" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="C248" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D248" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>45063</v>
+        <v>23088</v>
       </c>
       <c r="B249" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="C249" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D249" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>45064</v>
+        <v>33041</v>
       </c>
       <c r="B250" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="C250" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D250" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>45065</v>
+        <v>73109</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="C251" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D251" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>45068</v>
+        <v>13044</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C252" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D252" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>46003</v>
+        <v>13046</v>
       </c>
       <c r="B253" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D253" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>46013</v>
+        <v>42023</v>
       </c>
       <c r="B254" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="C254" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="D254" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>46014</v>
+        <v>34040</v>
       </c>
       <c r="B255" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="C255" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D255" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>46020</v>
+        <v>73098</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C256" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="D256" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>46021</v>
+        <v>23102</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C257" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D257" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>46024</v>
+        <v>33029</v>
       </c>
       <c r="B258" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C258" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D258" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>46025</v>
+        <v>13049</v>
       </c>
       <c r="B259" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D259" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>71002</v>
+        <v>42025</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="C260" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D260" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>71004</v>
+        <v>34041</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="C261" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D261" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>71011</v>
+        <v>23103</v>
       </c>
       <c r="B262" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C262" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D262" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>71016</v>
+        <v>42026</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C263" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D263" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>71017</v>
+        <v>37017</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="C264" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="D264" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>71020</v>
+        <v>11050</v>
       </c>
       <c r="B265" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="C265" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D265" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>71022</v>
+        <v>12040</v>
       </c>
       <c r="B266" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="C266" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D266" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>71024</v>
+        <v>37021</v>
       </c>
       <c r="B267" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="C267" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="D267" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>71034</v>
+        <v>11052</v>
       </c>
       <c r="B268" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="C268" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D268" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>71037</v>
+        <v>45061</v>
       </c>
       <c r="B269" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="C269" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D269" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>71045</v>
+        <v>11053</v>
       </c>
       <c r="B270" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D270" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>71053</v>
+        <v>11054</v>
       </c>
       <c r="B271" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C271" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D271" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>71057</v>
+        <v>23094</v>
       </c>
       <c r="B272" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C272" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D272" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>71066</v>
+        <v>31040</v>
       </c>
       <c r="B273" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C273" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D273" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>71067</v>
+        <v>42028</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D274" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>71069</v>
+        <v>43018</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="C275" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D275" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>71070</v>
+        <v>23096</v>
       </c>
       <c r="B276" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="C276" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D276" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>72003</v>
+        <v>11055</v>
       </c>
       <c r="B277" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C277" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D277" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>72004</v>
+        <v>71066</v>
       </c>
       <c r="B278" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="C278" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D278" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>72018</v>
+        <v>33037</v>
       </c>
       <c r="B279" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="C279" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D279" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>72020</v>
+        <v>41081</v>
       </c>
       <c r="B280" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="C280" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D280" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>72021</v>
+        <v>24130</v>
       </c>
       <c r="B281" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="C281" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D281" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>72030</v>
+        <v>31042</v>
       </c>
       <c r="B282" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="C282" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D282" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>72037</v>
+        <v>44081</v>
       </c>
       <c r="B283" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C283" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D283" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>72038</v>
+        <v>71067</v>
       </c>
       <c r="B284" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="C284" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="D284" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>72039</v>
+        <v>45065</v>
       </c>
       <c r="B285" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="C285" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D285" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>72041</v>
+        <v>34042</v>
       </c>
       <c r="B286" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="C286" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D286" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>72042</v>
+        <v>99999</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="C287" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>72043</v>
+        <v>99991</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="C288" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D288" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>73001</v>
-      </c>
-      <c r="B289" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" t="s">
-        <v>325</v>
-      </c>
-      <c r="D289" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>73006</v>
-      </c>
-      <c r="B290" t="s">
-        <v>36</v>
-      </c>
-      <c r="C290" t="s">
-        <v>325</v>
-      </c>
-      <c r="D290" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>73009</v>
-      </c>
-      <c r="B291" t="s">
-        <v>43</v>
-      </c>
-      <c r="C291" t="s">
-        <v>325</v>
-      </c>
-      <c r="D291" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>73022</v>
-      </c>
-      <c r="B292" t="s">
-        <v>99</v>
-      </c>
-      <c r="C292" t="s">
-        <v>325</v>
-      </c>
-      <c r="D292" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>73028</v>
-      </c>
-      <c r="B293" t="s">
-        <v>108</v>
-      </c>
-      <c r="C293" t="s">
-        <v>325</v>
-      </c>
-      <c r="D293" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>73032</v>
-      </c>
-      <c r="B294" t="s">
-        <v>114</v>
-      </c>
-      <c r="C294" t="s">
-        <v>325</v>
-      </c>
-      <c r="D294" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
-        <v>73040</v>
-      </c>
-      <c r="B295" t="s">
-        <v>145</v>
-      </c>
-      <c r="C295" t="s">
-        <v>325</v>
-      </c>
-      <c r="D295" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
-        <v>73042</v>
-      </c>
-      <c r="B296" t="s">
-        <v>152</v>
-      </c>
-      <c r="C296" t="s">
-        <v>325</v>
-      </c>
-      <c r="D296" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
-        <v>73066</v>
-      </c>
-      <c r="B297" t="s">
-        <v>223</v>
-      </c>
-      <c r="C297" t="s">
-        <v>325</v>
-      </c>
-      <c r="D297" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
-        <v>73083</v>
-      </c>
-      <c r="B298" t="s">
-        <v>256</v>
-      </c>
-      <c r="C298" t="s">
-        <v>325</v>
-      </c>
-      <c r="D298" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>73098</v>
-      </c>
-      <c r="B299" t="s">
-        <v>269</v>
-      </c>
-      <c r="C299" t="s">
-        <v>325</v>
-      </c>
-      <c r="D299" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
-        <v>73107</v>
-      </c>
-      <c r="B300" t="s">
-        <v>179</v>
-      </c>
-      <c r="C300" t="s">
-        <v>325</v>
-      </c>
-      <c r="D300" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
-        <v>73109</v>
-      </c>
-      <c r="B301" t="s">
-        <v>263</v>
-      </c>
-      <c r="C301" t="s">
-        <v>325</v>
-      </c>
-      <c r="D301" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302">
-        <v>99991</v>
-      </c>
-      <c r="B302" t="s">
-        <v>301</v>
-      </c>
-      <c r="C302" t="s">
-        <v>326</v>
-      </c>
-      <c r="D302" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303">
-        <v>99999</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kerntabellen/gemeente_refreg.xlsx
+++ b/kerntabellen/gemeente_refreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFF356B-0BF3-4186-86BD-053683E0BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6988B-EA5C-4710-8934-EC24E552AAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="323">
   <si>
     <t>Name gemeente</t>
   </si>
@@ -918,9 +918,6 @@
   </si>
   <si>
     <t>Limburg</t>
-  </si>
-  <si>
-    <t>Referentieregio onbekend (Vlaanderen)</t>
   </si>
   <si>
     <t>REFREG</t>
@@ -1072,9 +1069,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1112,7 +1109,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1218,7 +1215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1360,7 +1357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1370,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3C9D6A-5C3D-419D-B580-AB662F58B8BF}">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
         <v>295</v>
-      </c>
-      <c r="D1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
         <v>289</v>
@@ -1412,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
         <v>291</v>
@@ -1426,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
         <v>284</v>
@@ -1440,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
         <v>280</v>
@@ -1454,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
         <v>283</v>
@@ -1468,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
         <v>293</v>
@@ -1482,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
         <v>285</v>
@@ -1496,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
         <v>280</v>
@@ -1510,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
         <v>287</v>
@@ -1524,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>288</v>
@@ -1538,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>282</v>
@@ -1552,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
         <v>293</v>
@@ -1566,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D14" t="s">
         <v>283</v>
@@ -1580,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
         <v>291</v>
@@ -1594,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
         <v>287</v>
@@ -1608,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
         <v>282</v>
@@ -1622,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>282</v>
@@ -1636,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
         <v>286</v>
@@ -1650,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
         <v>282</v>
@@ -1664,7 +1661,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
         <v>283</v>
@@ -1678,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
         <v>284</v>
@@ -1692,7 +1689,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
         <v>284</v>
@@ -1706,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D24" t="s">
         <v>293</v>
@@ -1720,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
         <v>281</v>
@@ -1734,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
         <v>289</v>
@@ -1748,7 +1745,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
         <v>284</v>
@@ -1762,7 +1759,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s">
         <v>283</v>
@@ -1773,10 +1770,10 @@
         <v>46030</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
         <v>292</v>
@@ -1790,7 +1787,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -1801,10 +1798,10 @@
         <v>73110</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
         <v>293</v>
@@ -1818,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D32" t="s">
         <v>286</v>
@@ -1832,7 +1829,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D33" t="s">
         <v>293</v>
@@ -1846,7 +1843,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
         <v>280</v>
@@ -1860,7 +1857,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D35" t="s">
         <v>281</v>
@@ -1874,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D36" t="s">
         <v>280</v>
@@ -1888,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s">
         <v>284</v>
@@ -1902,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" t="s">
         <v>281</v>
@@ -1916,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" t="s">
         <v>284</v>
@@ -1930,7 +1927,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
         <v>290</v>
@@ -1944,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s">
         <v>280</v>
@@ -1958,7 +1955,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D42" t="s">
         <v>280</v>
@@ -1972,10 +1969,10 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" t="s">
         <v>312</v>
-      </c>
-      <c r="D43" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1986,7 +1983,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D44" t="s">
         <v>293</v>
@@ -2000,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" t="s">
         <v>286</v>
@@ -2014,7 +2011,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
         <v>289</v>
@@ -2028,7 +2025,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D47" t="s">
         <v>286</v>
@@ -2042,10 +2039,10 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" t="s">
         <v>312</v>
-      </c>
-      <c r="D48" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,7 +2053,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
         <v>285</v>
@@ -2070,7 +2067,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50" t="s">
         <v>287</v>
@@ -2084,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D51" t="s">
         <v>291</v>
@@ -2098,7 +2095,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
         <v>289</v>
@@ -2112,7 +2109,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
         <v>289</v>
@@ -2126,7 +2123,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
         <v>288</v>
@@ -2140,7 +2137,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
         <v>282</v>
@@ -2154,7 +2151,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D56" t="s">
         <v>291</v>
@@ -2168,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s">
         <v>293</v>
@@ -2182,7 +2179,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D58" t="s">
         <v>284</v>
@@ -2196,7 +2193,7 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D59" t="s">
         <v>285</v>
@@ -2210,7 +2207,7 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
         <v>283</v>
@@ -2224,7 +2221,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
         <v>293</v>
@@ -2238,7 +2235,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" t="s">
         <v>283</v>
@@ -2252,7 +2249,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
         <v>281</v>
@@ -2266,7 +2263,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
         <v>280</v>
@@ -2280,7 +2277,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" t="s">
         <v>291</v>
@@ -2294,7 +2291,7 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
         <v>289</v>
@@ -2308,7 +2305,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D67" t="s">
         <v>280</v>
@@ -2322,7 +2319,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D68" t="s">
         <v>291</v>
@@ -2336,7 +2333,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D69" t="s">
         <v>291</v>
@@ -2350,7 +2347,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
         <v>282</v>
@@ -2364,7 +2361,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D71" t="s">
         <v>284</v>
@@ -2378,7 +2375,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D72" t="s">
         <v>293</v>
@@ -2392,7 +2389,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
         <v>291</v>
@@ -2406,7 +2403,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -2420,7 +2417,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
         <v>293</v>
@@ -2434,10 +2431,10 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
         <v>312</v>
-      </c>
-      <c r="D76" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,7 +2445,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D77" t="s">
         <v>284</v>
@@ -2462,7 +2459,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
         <v>283</v>
@@ -2476,7 +2473,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
         <v>282</v>
@@ -2490,7 +2487,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
         <v>284</v>
@@ -2504,7 +2501,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D81" t="s">
         <v>289</v>
@@ -2518,7 +2515,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" t="s">
         <v>293</v>
@@ -2532,7 +2529,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" t="s">
         <v>283</v>
@@ -2546,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
         <v>289</v>
@@ -2560,7 +2557,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s">
         <v>293</v>
@@ -2574,7 +2571,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
         <v>287</v>
@@ -2588,7 +2585,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
         <v>293</v>
@@ -2602,7 +2599,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D88" t="s">
         <v>293</v>
@@ -2616,7 +2613,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D89" t="s">
         <v>293</v>
@@ -2630,7 +2627,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90" t="s">
         <v>281</v>
@@ -2644,7 +2641,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D91" t="s">
         <v>280</v>
@@ -2658,7 +2655,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D92" t="s">
         <v>284</v>
@@ -2672,7 +2669,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D93" t="s">
         <v>282</v>
@@ -2686,7 +2683,7 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>282</v>
@@ -2700,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
         <v>293</v>
@@ -2714,7 +2711,7 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
         <v>282</v>
@@ -2728,7 +2725,7 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
         <v>293</v>
@@ -2742,7 +2739,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D98" t="s">
         <v>290</v>
@@ -2756,7 +2753,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D99" t="s">
         <v>293</v>
@@ -2770,7 +2767,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D100" t="s">
         <v>285</v>
@@ -2784,7 +2781,7 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
         <v>284</v>
@@ -2798,7 +2795,7 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
         <v>284</v>
@@ -2812,7 +2809,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
         <v>284</v>
@@ -2826,7 +2823,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" t="s">
         <v>288</v>
@@ -2840,7 +2837,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D105" t="s">
         <v>282</v>
@@ -2854,7 +2851,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" t="s">
         <v>290</v>
@@ -2868,7 +2865,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" t="s">
         <v>293</v>
@@ -2882,7 +2879,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D108" t="s">
         <v>285</v>
@@ -2896,7 +2893,7 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" t="s">
         <v>280</v>
@@ -2910,7 +2907,7 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" t="s">
         <v>284</v>
@@ -2924,7 +2921,7 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
         <v>282</v>
@@ -2938,10 +2935,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112" t="s">
         <v>312</v>
-      </c>
-      <c r="D112" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2952,7 +2949,7 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" t="s">
         <v>285</v>
@@ -2966,7 +2963,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D114" t="s">
         <v>288</v>
@@ -2980,7 +2977,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
         <v>288</v>
@@ -2994,7 +2991,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D116" t="s">
         <v>286</v>
@@ -3008,7 +3005,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D117" t="s">
         <v>280</v>
@@ -3022,7 +3019,7 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D118" t="s">
         <v>283</v>
@@ -3036,7 +3033,7 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D119" t="s">
         <v>283</v>
@@ -3050,7 +3047,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D120" t="s">
         <v>280</v>
@@ -3064,7 +3061,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
         <v>291</v>
@@ -3078,7 +3075,7 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D122" t="s">
         <v>282</v>
@@ -3092,7 +3089,7 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D123" t="s">
         <v>284</v>
@@ -3106,7 +3103,7 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D124" t="s">
         <v>293</v>
@@ -3120,7 +3117,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D125" t="s">
         <v>290</v>
@@ -3134,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
         <v>286</v>
@@ -3148,7 +3145,7 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
         <v>285</v>
@@ -3162,7 +3159,7 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
         <v>285</v>
@@ -3176,7 +3173,7 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D129" t="s">
         <v>280</v>
@@ -3190,7 +3187,7 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D130" t="s">
         <v>285</v>
@@ -3204,7 +3201,7 @@
         <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D131" t="s">
         <v>284</v>
@@ -3218,7 +3215,7 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D132" t="s">
         <v>284</v>
@@ -3232,7 +3229,7 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D133" t="s">
         <v>287</v>
@@ -3246,7 +3243,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D134" t="s">
         <v>283</v>
@@ -3260,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D135" t="s">
         <v>290</v>
@@ -3274,7 +3271,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D136" t="s">
         <v>287</v>
@@ -3288,7 +3285,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D137" t="s">
         <v>282</v>
@@ -3302,7 +3299,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D138" t="s">
         <v>291</v>
@@ -3316,7 +3313,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D139" t="s">
         <v>293</v>
@@ -3330,7 +3327,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D140" t="s">
         <v>284</v>
@@ -3344,7 +3341,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D141" t="s">
         <v>285</v>
@@ -3358,7 +3355,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D142" t="s">
         <v>289</v>
@@ -3372,7 +3369,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D143" t="s">
         <v>289</v>
@@ -3386,7 +3383,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D144" t="s">
         <v>288</v>
@@ -3400,7 +3397,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D145" t="s">
         <v>287</v>
@@ -3414,7 +3411,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D146" t="s">
         <v>283</v>
@@ -3428,7 +3425,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D147" t="s">
         <v>293</v>
@@ -3442,7 +3439,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D148" t="s">
         <v>284</v>
@@ -3456,7 +3453,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D149" t="s">
         <v>288</v>
@@ -3470,7 +3467,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D150" t="s">
         <v>283</v>
@@ -3484,7 +3481,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D151" t="s">
         <v>281</v>
@@ -3498,7 +3495,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
         <v>290</v>
@@ -3512,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
         <v>291</v>
@@ -3526,7 +3523,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
         <v>282</v>
@@ -3540,7 +3537,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D155" t="s">
         <v>283</v>
@@ -3554,7 +3551,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D156" t="s">
         <v>280</v>
@@ -3568,7 +3565,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D157" t="s">
         <v>284</v>
@@ -3582,7 +3579,7 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
         <v>285</v>
@@ -3596,7 +3593,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D159" t="s">
         <v>291</v>
@@ -3610,7 +3607,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D160" t="s">
         <v>292</v>
@@ -3624,7 +3621,7 @@
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D161" t="s">
         <v>293</v>
@@ -3638,7 +3635,7 @@
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D162" t="s">
         <v>283</v>
@@ -3652,7 +3649,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D163" t="s">
         <v>284</v>
@@ -3666,7 +3663,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D164" t="s">
         <v>293</v>
@@ -3680,7 +3677,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D165" t="s">
         <v>290</v>
@@ -3694,7 +3691,7 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D166" t="s">
         <v>293</v>
@@ -3708,7 +3705,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D167" t="s">
         <v>293</v>
@@ -3722,7 +3719,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
         <v>283</v>
@@ -3736,7 +3733,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D169" t="s">
         <v>291</v>
@@ -3750,7 +3747,7 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
         <v>280</v>
@@ -3764,7 +3761,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D171" t="s">
         <v>281</v>
@@ -3778,7 +3775,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D172" t="s">
         <v>282</v>
@@ -3792,7 +3789,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D173" t="s">
         <v>283</v>
@@ -3806,7 +3803,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D174" t="s">
         <v>287</v>
@@ -3820,7 +3817,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D175" t="s">
         <v>283</v>
@@ -3831,10 +3828,10 @@
         <v>44088</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C176" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D176" t="s">
         <v>291</v>
@@ -3848,7 +3845,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D177" t="s">
         <v>282</v>
@@ -3862,7 +3859,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D178" t="s">
         <v>285</v>
@@ -3876,10 +3873,10 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
+        <v>311</v>
+      </c>
+      <c r="D179" t="s">
         <v>312</v>
-      </c>
-      <c r="D179" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3890,7 +3887,7 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D180" t="s">
         <v>282</v>
@@ -3904,7 +3901,7 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D181" t="s">
         <v>288</v>
@@ -3918,7 +3915,7 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D182" t="s">
         <v>280</v>
@@ -3929,10 +3926,10 @@
         <v>44086</v>
       </c>
       <c r="B183" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C183" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D183" t="s">
         <v>291</v>
@@ -3946,7 +3943,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D184" t="s">
         <v>280</v>
@@ -3960,7 +3957,7 @@
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D185" t="s">
         <v>293</v>
@@ -3974,7 +3971,7 @@
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" t="s">
         <v>285</v>
@@ -3988,7 +3985,7 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D187" t="s">
         <v>281</v>
@@ -4002,7 +3999,7 @@
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D188" t="s">
         <v>289</v>
@@ -4016,7 +4013,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D189" t="s">
         <v>282</v>
@@ -4030,10 +4027,10 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" t="s">
         <v>312</v>
-      </c>
-      <c r="D190" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4044,7 +4041,7 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D191" t="s">
         <v>290</v>
@@ -4058,7 +4055,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D192" t="s">
         <v>286</v>
@@ -4072,7 +4069,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D193" t="s">
         <v>288</v>
@@ -4086,7 +4083,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D194" t="s">
         <v>283</v>
@@ -4100,7 +4097,7 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D195" t="s">
         <v>284</v>
@@ -4114,7 +4111,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D196" t="s">
         <v>282</v>
@@ -4128,7 +4125,7 @@
         <v>193</v>
       </c>
       <c r="C197" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D197" t="s">
         <v>290</v>
@@ -4142,10 +4139,10 @@
         <v>194</v>
       </c>
       <c r="C198" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" t="s">
         <v>312</v>
-      </c>
-      <c r="D198" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4156,7 +4153,7 @@
         <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D199" t="s">
         <v>293</v>
@@ -4170,7 +4167,7 @@
         <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D200" t="s">
         <v>284</v>
@@ -4181,10 +4178,10 @@
         <v>23106</v>
       </c>
       <c r="B201" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D201" t="s">
         <v>283</v>
@@ -4198,7 +4195,7 @@
         <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D202" t="s">
         <v>293</v>
@@ -4212,7 +4209,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D203" t="s">
         <v>293</v>
@@ -4226,7 +4223,7 @@
         <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D204" t="s">
         <v>283</v>
@@ -4240,7 +4237,7 @@
         <v>200</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D205" t="s">
         <v>288</v>
@@ -4254,7 +4251,7 @@
         <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D206" t="s">
         <v>285</v>
@@ -4268,7 +4265,7 @@
         <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D207" t="s">
         <v>281</v>
@@ -4282,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D208" t="s">
         <v>281</v>
@@ -4296,7 +4293,7 @@
         <v>203</v>
       </c>
       <c r="C209" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D209" t="s">
         <v>280</v>
@@ -4310,7 +4307,7 @@
         <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D210" t="s">
         <v>282</v>
@@ -4324,7 +4321,7 @@
         <v>205</v>
       </c>
       <c r="C211" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D211" t="s">
         <v>282</v>
@@ -4338,7 +4335,7 @@
         <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D212" t="s">
         <v>293</v>
@@ -4352,7 +4349,7 @@
         <v>207</v>
       </c>
       <c r="C213" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D213" t="s">
         <v>282</v>
@@ -4366,7 +4363,7 @@
         <v>208</v>
       </c>
       <c r="C214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D214" t="s">
         <v>288</v>
@@ -4380,7 +4377,7 @@
         <v>209</v>
       </c>
       <c r="C215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D215" t="s">
         <v>290</v>
@@ -4394,7 +4391,7 @@
         <v>210</v>
       </c>
       <c r="C216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D216" t="s">
         <v>283</v>
@@ -4408,7 +4405,7 @@
         <v>211</v>
       </c>
       <c r="C217" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D217" t="s">
         <v>284</v>
@@ -4422,7 +4419,7 @@
         <v>212</v>
       </c>
       <c r="C218" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D218" t="s">
         <v>280</v>
@@ -4436,7 +4433,7 @@
         <v>213</v>
       </c>
       <c r="C219" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D219" t="s">
         <v>280</v>
@@ -4450,7 +4447,7 @@
         <v>214</v>
       </c>
       <c r="C220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D220" t="s">
         <v>284</v>
@@ -4464,7 +4461,7 @@
         <v>215</v>
       </c>
       <c r="C221" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D221" t="s">
         <v>280</v>
@@ -4478,7 +4475,7 @@
         <v>216</v>
       </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D222" t="s">
         <v>280</v>
@@ -4492,7 +4489,7 @@
         <v>217</v>
       </c>
       <c r="C223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D223" t="s">
         <v>283</v>
@@ -4506,7 +4503,7 @@
         <v>218</v>
       </c>
       <c r="C224" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D224" t="s">
         <v>292</v>
@@ -4520,7 +4517,7 @@
         <v>219</v>
       </c>
       <c r="C225" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D225" t="s">
         <v>281</v>
@@ -4534,7 +4531,7 @@
         <v>220</v>
       </c>
       <c r="C226" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D226" t="s">
         <v>291</v>
@@ -4548,7 +4545,7 @@
         <v>221</v>
       </c>
       <c r="C227" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D227" t="s">
         <v>290</v>
@@ -4562,7 +4559,7 @@
         <v>222</v>
       </c>
       <c r="C228" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D228" t="s">
         <v>291</v>
@@ -4576,7 +4573,7 @@
         <v>223</v>
       </c>
       <c r="C229" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D229" t="s">
         <v>292</v>
@@ -4590,7 +4587,7 @@
         <v>224</v>
       </c>
       <c r="C230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D230" t="s">
         <v>283</v>
@@ -4604,7 +4601,7 @@
         <v>225</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D231" t="s">
         <v>293</v>
@@ -4618,7 +4615,7 @@
         <v>226</v>
       </c>
       <c r="C232" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D232" t="s">
         <v>287</v>
@@ -4632,7 +4629,7 @@
         <v>227</v>
       </c>
       <c r="C233" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D233" t="s">
         <v>280</v>
@@ -4646,7 +4643,7 @@
         <v>228</v>
       </c>
       <c r="C234" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D234" t="s">
         <v>288</v>
@@ -4660,7 +4657,7 @@
         <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D235" t="s">
         <v>283</v>
@@ -4674,7 +4671,7 @@
         <v>230</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D236" t="s">
         <v>292</v>
@@ -4688,7 +4685,7 @@
         <v>231</v>
       </c>
       <c r="C237" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D237" t="s">
         <v>292</v>
@@ -4702,7 +4699,7 @@
         <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D238" t="s">
         <v>283</v>
@@ -4716,7 +4713,7 @@
         <v>233</v>
       </c>
       <c r="C239" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D239" t="s">
         <v>284</v>
@@ -4727,10 +4724,10 @@
         <v>71071</v>
       </c>
       <c r="B240" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C240" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D240" t="s">
         <v>293</v>
@@ -4744,7 +4741,7 @@
         <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D241" t="s">
         <v>288</v>
@@ -4758,7 +4755,7 @@
         <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D242" t="s">
         <v>284</v>
@@ -4772,7 +4769,7 @@
         <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D243" t="s">
         <v>284</v>
@@ -4783,10 +4780,10 @@
         <v>73111</v>
       </c>
       <c r="B244" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C244" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D244" t="s">
         <v>293</v>
@@ -4800,7 +4797,7 @@
         <v>237</v>
       </c>
       <c r="C245" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D245" t="s">
         <v>286</v>
@@ -4814,7 +4811,7 @@
         <v>238</v>
       </c>
       <c r="C246" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D246" t="s">
         <v>284</v>
@@ -4828,7 +4825,7 @@
         <v>239</v>
       </c>
       <c r="C247" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D247" t="s">
         <v>282</v>
@@ -4842,7 +4839,7 @@
         <v>240</v>
       </c>
       <c r="C248" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D248" t="s">
         <v>285</v>
@@ -4856,7 +4853,7 @@
         <v>241</v>
       </c>
       <c r="C249" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D249" t="s">
         <v>283</v>
@@ -4870,7 +4867,7 @@
         <v>242</v>
       </c>
       <c r="C250" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D250" t="s">
         <v>285</v>
@@ -4884,7 +4881,7 @@
         <v>243</v>
       </c>
       <c r="C251" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D251" t="s">
         <v>293</v>
@@ -4898,7 +4895,7 @@
         <v>244</v>
       </c>
       <c r="C252" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D252" t="s">
         <v>282</v>
@@ -4912,7 +4909,7 @@
         <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D253" t="s">
         <v>282</v>
@@ -4926,7 +4923,7 @@
         <v>246</v>
       </c>
       <c r="C254" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D254" t="s">
         <v>292</v>
@@ -4940,7 +4937,7 @@
         <v>247</v>
       </c>
       <c r="C255" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D255" t="s">
         <v>287</v>
@@ -4954,7 +4951,7 @@
         <v>248</v>
       </c>
       <c r="C256" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D256" t="s">
         <v>293</v>
@@ -4968,7 +4965,7 @@
         <v>249</v>
       </c>
       <c r="C257" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D257" t="s">
         <v>283</v>
@@ -4982,7 +4979,7 @@
         <v>250</v>
       </c>
       <c r="C258" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D258" t="s">
         <v>287</v>
@@ -4996,7 +4993,7 @@
         <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D259" t="s">
         <v>282</v>
@@ -5010,7 +5007,7 @@
         <v>252</v>
       </c>
       <c r="C260" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D260" t="s">
         <v>291</v>
@@ -5024,7 +5021,7 @@
         <v>253</v>
       </c>
       <c r="C261" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D261" t="s">
         <v>287</v>
@@ -5038,7 +5035,7 @@
         <v>254</v>
       </c>
       <c r="C262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D262" t="s">
         <v>283</v>
@@ -5052,7 +5049,7 @@
         <v>255</v>
       </c>
       <c r="C263" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D263" t="s">
         <v>289</v>
@@ -5066,7 +5063,7 @@
         <v>256</v>
       </c>
       <c r="C264" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D264" t="s">
         <v>288</v>
@@ -5080,7 +5077,7 @@
         <v>257</v>
       </c>
       <c r="C265" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D265" t="s">
         <v>280</v>
@@ -5094,7 +5091,7 @@
         <v>258</v>
       </c>
       <c r="C266" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D266" t="s">
         <v>281</v>
@@ -5108,7 +5105,7 @@
         <v>259</v>
       </c>
       <c r="C267" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D267" t="s">
         <v>288</v>
@@ -5122,7 +5119,7 @@
         <v>260</v>
       </c>
       <c r="C268" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D268" t="s">
         <v>280</v>
@@ -5136,7 +5133,7 @@
         <v>261</v>
       </c>
       <c r="C269" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D269" t="s">
         <v>290</v>
@@ -5150,7 +5147,7 @@
         <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D270" t="s">
         <v>280</v>
@@ -5164,7 +5161,7 @@
         <v>263</v>
       </c>
       <c r="C271" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D271" t="s">
         <v>280</v>
@@ -5178,7 +5175,7 @@
         <v>264</v>
       </c>
       <c r="C272" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D272" t="s">
         <v>283</v>
@@ -5192,7 +5189,7 @@
         <v>265</v>
       </c>
       <c r="C273" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D273" t="s">
         <v>286</v>
@@ -5206,7 +5203,7 @@
         <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D274" t="s">
         <v>289</v>
@@ -5220,7 +5217,7 @@
         <v>267</v>
       </c>
       <c r="C275" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D275" t="s">
         <v>291</v>
@@ -5234,7 +5231,7 @@
         <v>268</v>
       </c>
       <c r="C276" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D276" t="s">
         <v>283</v>
@@ -5248,7 +5245,7 @@
         <v>269</v>
       </c>
       <c r="C277" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D277" t="s">
         <v>280</v>
@@ -5262,7 +5259,7 @@
         <v>270</v>
       </c>
       <c r="C278" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D278" t="s">
         <v>293</v>
@@ -5276,7 +5273,7 @@
         <v>271</v>
       </c>
       <c r="C279" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D279" t="s">
         <v>285</v>
@@ -5290,7 +5287,7 @@
         <v>272</v>
       </c>
       <c r="C280" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D280" t="s">
         <v>290</v>
@@ -5304,7 +5301,7 @@
         <v>273</v>
       </c>
       <c r="C281" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D281" t="s">
         <v>284</v>
@@ -5318,7 +5315,7 @@
         <v>274</v>
       </c>
       <c r="C282" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D282" t="s">
         <v>286</v>
@@ -5332,7 +5329,7 @@
         <v>275</v>
       </c>
       <c r="C283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D283" t="s">
         <v>291</v>
@@ -5346,7 +5343,7 @@
         <v>276</v>
       </c>
       <c r="C284" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D284" t="s">
         <v>293</v>
@@ -5360,7 +5357,7 @@
         <v>277</v>
       </c>
       <c r="C285" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D285" t="s">
         <v>290</v>
@@ -5374,7 +5371,7 @@
         <v>278</v>
       </c>
       <c r="C286" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D286" t="s">
         <v>287</v>
@@ -5385,13 +5382,13 @@
         <v>99999</v>
       </c>
       <c r="B287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C287" t="s">
+        <v>313</v>
+      </c>
+      <c r="D287" t="s">
         <v>314</v>
-      </c>
-      <c r="D287" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5399,13 +5396,13 @@
         <v>99991</v>
       </c>
       <c r="B288" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C288" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D288" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
